--- a/Origin_Files/2025.05 Objetivos TELECO INGENIERIA_rev.xlsx
+++ b/Origin_Files/2025.05 Objetivos TELECO INGENIERIA_rev.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UX530\Desktop\MASTER\TFM\Files TMF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UX530\Desktop\TFM-GIT\Origin_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD6DEAB-4EB7-4217-8941-1ABD5B56D235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF122B-AB57-485C-BF17-C283489B2050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Obj 2024 T1" sheetId="2" r:id="rId1"/>
-    <sheet name="Resumen" sheetId="3" r:id="rId2"/>
+    <sheet name="Obj 2025 T1" sheetId="2" r:id="rId1"/>
+    <sheet name="Resumen Objetivos" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Obj 2024 T1'!$A$5:$P$105</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Obj 2024 T1'!$1:$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Resumen Objetivos'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Obj 2025 T1'!$A$5:$P$105</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Obj 2025 T1'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>PROYECTOS</t>
   </si>
@@ -296,9 +297,6 @@
     <t>CONSERVACION EFICIENCIA</t>
   </si>
   <si>
-    <t>PREVISIÓN 2024</t>
-  </si>
-  <si>
     <t>494 INGENIERIA PLANTA EXTERNA- OBJETIVOS</t>
   </si>
   <si>
@@ -431,21 +429,6 @@
     <t>SUBPROYECTO</t>
   </si>
   <si>
-    <t>Suma de Producción Mes+Año</t>
-  </si>
-  <si>
-    <t>Suma de Facturación Mes+Año</t>
-  </si>
-  <si>
-    <t>Suma de Aportación Mes+Año</t>
-  </si>
-  <si>
-    <t>Contratación</t>
-  </si>
-  <si>
-    <t>% Aportación</t>
-  </si>
-  <si>
     <t>Prev Contratación</t>
   </si>
   <si>
@@ -461,28 +444,27 @@
     <t>Prev % Aportación</t>
   </si>
   <si>
-    <t>Coste mes + Año</t>
-  </si>
-  <si>
-    <t>Coste Directo mes + Año</t>
-  </si>
-  <si>
     <t>TELECOMUNICACIONES INGENIERIA - PREV. 2025</t>
   </si>
   <si>
     <t>CIERRE ACUM.MAYO 2025</t>
+  </si>
+  <si>
+    <t>DISEÑO FTTH REDE ABERTA</t>
+  </si>
+  <si>
+    <t>PREVISIÓN 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -1202,14 +1184,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1772,9 +1753,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1793,25 +1772,19 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2178,8 +2151,8 @@
   <dimension ref="A1:AL107"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2200,22 +2173,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
+      <c r="A1" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
       <c r="O1" s="21" t="s">
         <v>10</v>
       </c>
@@ -2224,33 +2197,33 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="35.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="197" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197" t="s">
+      <c r="A2" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="195" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="198"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="196"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="48.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="196"/>
+      <c r="A3" s="194"/>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2272,7 @@
     </row>
     <row r="4" spans="1:16" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="32">
         <f>B5+B34</f>
@@ -2364,7 +2337,7 @@
     </row>
     <row r="5" spans="1:16" s="20" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="36">
         <v>3400</v>
@@ -2522,7 +2495,7 @@
         <v>15.154960000000044</v>
       </c>
       <c r="K7" s="130">
-        <f t="shared" si="3"/>
+        <f>J7/H7</f>
         <v>4.1519912816446118E-2</v>
       </c>
       <c r="L7" s="44">
@@ -2728,8 +2701,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>37</v>
+      <c r="A11" s="197" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="53">
         <f>C11</f>
@@ -2847,7 +2820,7 @@
     </row>
     <row r="13" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="53">
         <v>550</v>
@@ -3026,7 +2999,7 @@
     </row>
     <row r="16" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="53">
         <f>C16</f>
@@ -3144,7 +3117,7 @@
     </row>
     <row r="18" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="44">
         <f>C18</f>
@@ -3203,7 +3176,7 @@
     </row>
     <row r="19" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="44">
         <f>C19</f>
@@ -3262,7 +3235,7 @@
     </row>
     <row r="20" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="57">
         <v>140</v>
@@ -3385,7 +3358,7 @@
     </row>
     <row r="22" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B22" s="60">
         <v>220</v>
@@ -3461,7 +3434,7 @@
     </row>
     <row r="24" spans="1:16" s="20" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="63"/>
       <c r="C24" s="64"/>
@@ -3499,7 +3472,7 @@
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="28">
         <v>0.13</v>
@@ -3544,7 +3517,7 @@
     </row>
     <row r="26" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="30"/>
@@ -3584,7 +3557,7 @@
     </row>
     <row r="27" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="30"/>
@@ -3626,7 +3599,7 @@
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="30"/>
@@ -3668,7 +3641,7 @@
     </row>
     <row r="29" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="30"/>
@@ -3720,7 +3693,7 @@
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="30"/>
@@ -3757,7 +3730,7 @@
     </row>
     <row r="31" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="68"/>
@@ -3785,7 +3758,7 @@
     </row>
     <row r="32" spans="1:16" s="20" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="72">
         <f>B6+B15+B10+B21</f>
@@ -3906,7 +3879,7 @@
     </row>
     <row r="34" spans="1:16" s="20" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="36">
         <f>B48</f>
@@ -3968,7 +3941,7 @@
     </row>
     <row r="35" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="41">
         <v>1800</v>
@@ -4029,7 +4002,7 @@
     </row>
     <row r="36" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="53">
         <v>1000</v>
@@ -4087,7 +4060,7 @@
     </row>
     <row r="37" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="53">
         <v>800</v>
@@ -4144,7 +4117,7 @@
     </row>
     <row r="38" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="54"/>
@@ -4226,7 +4199,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="64"/>
@@ -4264,7 +4237,7 @@
     </row>
     <row r="41" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="28">
         <v>0.13</v>
@@ -4307,7 +4280,7 @@
     </row>
     <row r="42" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="28"/>
       <c r="C42" s="30"/>
@@ -4349,7 +4322,7 @@
     </row>
     <row r="43" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="30"/>
@@ -4391,7 +4364,7 @@
     </row>
     <row r="44" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="30"/>
@@ -4433,7 +4406,7 @@
     </row>
     <row r="45" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="30"/>
@@ -4485,7 +4458,7 @@
     </row>
     <row r="46" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="28"/>
       <c r="C46" s="30"/>
@@ -4527,7 +4500,7 @@
     </row>
     <row r="47" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="67"/>
       <c r="C47" s="68"/>
@@ -4563,7 +4536,7 @@
     </row>
     <row r="48" spans="1:16" s="20" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="72">
         <f>B36+B37+B38</f>
@@ -4702,7 +4675,7 @@
     </row>
     <row r="51" spans="1:16" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="82">
         <f>B32+B48</f>
@@ -4841,7 +4814,7 @@
     </row>
     <row r="54" spans="1:16" s="117" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="33">
         <f>B55+B86</f>
@@ -4906,7 +4879,7 @@
     </row>
     <row r="55" spans="1:16" s="7" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="36">
         <v>4600</v>
@@ -5322,7 +5295,7 @@
     </row>
     <row r="62" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="40">
         <f>SUM(B63:B67)</f>
@@ -5387,7 +5360,7 @@
     </row>
     <row r="63" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="23">
         <v>165</v>
@@ -5677,7 +5650,7 @@
     </row>
     <row r="68" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="40">
         <f>SUM(B69:B70)</f>
@@ -5980,7 +5953,7 @@
     </row>
     <row r="73" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="40">
         <f>SUM(B74:B74)</f>
@@ -6045,7 +6018,7 @@
     </row>
     <row r="74" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="14">
         <v>300</v>
@@ -6133,7 +6106,7 @@
     </row>
     <row r="76" spans="1:16" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="63"/>
       <c r="C76" s="64"/>
@@ -6171,7 +6144,7 @@
     </row>
     <row r="77" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="28">
         <v>0.115</v>
@@ -6214,7 +6187,7 @@
     </row>
     <row r="78" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="28"/>
       <c r="C78" s="30"/>
@@ -6256,7 +6229,7 @@
     </row>
     <row r="79" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" s="28"/>
       <c r="C79" s="30"/>
@@ -6299,7 +6272,7 @@
     </row>
     <row r="80" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" s="28"/>
       <c r="C80" s="30"/>
@@ -6342,7 +6315,7 @@
     </row>
     <row r="81" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="28"/>
       <c r="C81" s="30"/>
@@ -6396,7 +6369,7 @@
     </row>
     <row r="82" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="28"/>
       <c r="C82" s="30"/>
@@ -6436,7 +6409,7 @@
     </row>
     <row r="83" spans="1:16" s="7" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83" s="72">
         <f>B56+B62+B68+B73+B71</f>
@@ -6575,7 +6548,7 @@
     </row>
     <row r="86" spans="1:16" s="116" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B86" s="32">
         <v>4200</v>
@@ -6701,7 +6674,7 @@
     </row>
     <row r="88" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B88" s="23">
         <v>2800</v>
@@ -6759,7 +6732,7 @@
     </row>
     <row r="89" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B89" s="11">
         <v>1250</v>
@@ -6817,7 +6790,7 @@
     </row>
     <row r="90" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B90" s="11">
         <v>100</v>
@@ -6875,7 +6848,7 @@
     </row>
     <row r="91" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B91" s="11">
         <v>50</v>
@@ -6951,7 +6924,7 @@
     </row>
     <row r="93" spans="1:16" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="97"/>
       <c r="C93" s="98"/>
@@ -6989,7 +6962,7 @@
     </row>
     <row r="94" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="28">
         <v>0.105</v>
@@ -7032,7 +7005,7 @@
     </row>
     <row r="95" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B95" s="28"/>
       <c r="C95" s="30"/>
@@ -7074,7 +7047,7 @@
     </row>
     <row r="96" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B96" s="28"/>
       <c r="C96" s="30"/>
@@ -7117,7 +7090,7 @@
     </row>
     <row r="97" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B97" s="28"/>
       <c r="C97" s="30"/>
@@ -7159,7 +7132,7 @@
     </row>
     <row r="98" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" s="28"/>
       <c r="C98" s="30"/>
@@ -7209,7 +7182,7 @@
     </row>
     <row r="99" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B99" s="28"/>
       <c r="C99" s="30"/>
@@ -7276,7 +7249,7 @@
     </row>
     <row r="101" spans="1:16" s="1" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B101" s="72">
         <f>B87</f>
@@ -7397,7 +7370,7 @@
     </row>
     <row r="103" spans="1:16" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B103" s="82">
         <f>B83+B101</f>
@@ -7518,7 +7491,7 @@
     </row>
     <row r="105" spans="1:16" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B105" s="100">
         <f>B4+B54</f>
@@ -7583,7 +7556,7 @@
     </row>
     <row r="106" spans="1:16" s="5" customFormat="1" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B106" s="103">
         <f>B51+B103</f>
@@ -7648,7 +7621,7 @@
     </row>
     <row r="107" spans="1:16" s="27" customFormat="1" ht="31.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B107" s="106">
         <f>+B106/B105</f>
@@ -7707,62 +7680,62 @@
     <mergeCell ref="L2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F50">
-    <cfRule type="cellIs" dxfId="12" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53:F83">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:F102">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F107">
-    <cfRule type="cellIs" dxfId="9" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K50">
-    <cfRule type="cellIs" dxfId="8" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:K83">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K85:K102">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K105:K107">
-    <cfRule type="cellIs" dxfId="5" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P50">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P83">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P85:P102">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P105:P107">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7778,675 +7751,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N14"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
     <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" style="198" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="198" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="198" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="198" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="190" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D1" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="198" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="189" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="190">
+        <v>38</v>
+      </c>
+      <c r="C2" s="199">
         <v>60000</v>
       </c>
-      <c r="D2" s="190">
+      <c r="D2" s="199">
         <v>60000</v>
       </c>
-      <c r="E2" s="190">
+      <c r="E2" s="199">
         <v>60000</v>
       </c>
-      <c r="F2" s="190">
+      <c r="F2" s="199">
         <v>3000</v>
       </c>
       <c r="G2" s="189">
         <f>F2/D2</f>
         <v>0.05</v>
       </c>
-      <c r="H2" s="190">
-        <v>53588</v>
-      </c>
-      <c r="I2" s="190">
-        <v>53588</v>
-      </c>
-      <c r="J2" s="190">
-        <v>44341</v>
-      </c>
-      <c r="K2" s="190">
-        <v>2990</v>
-      </c>
-      <c r="L2" s="191">
-        <f t="shared" ref="L2:L14" si="0">K2/I2</f>
-        <v>5.5796073747853996E-2</v>
-      </c>
-      <c r="M2" s="192">
-        <v>45097.000000000007</v>
-      </c>
-      <c r="N2" s="192">
-        <v>37450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="190">
+        <v>39</v>
+      </c>
+      <c r="C3" s="199">
         <v>20000</v>
       </c>
-      <c r="D3" s="190">
+      <c r="D3" s="199">
         <v>20000</v>
       </c>
-      <c r="E3" s="190">
+      <c r="E3" s="199">
         <v>20000</v>
       </c>
-      <c r="F3" s="190">
+      <c r="F3" s="199">
         <v>2000</v>
       </c>
       <c r="G3" s="189">
-        <f t="shared" ref="G3:G14" si="1">F3/D3</f>
+        <f t="shared" ref="G3:G14" si="0">F3/D3</f>
         <v>0.1</v>
       </c>
-      <c r="H3" s="190">
-        <v>14500</v>
-      </c>
-      <c r="I3" s="190">
-        <v>14500</v>
-      </c>
-      <c r="J3" s="190">
-        <v>0</v>
-      </c>
-      <c r="K3" s="190">
-        <v>610</v>
-      </c>
-      <c r="L3" s="191">
-        <f t="shared" si="0"/>
-        <v>4.2068965517241382E-2</v>
-      </c>
-      <c r="M3" s="192">
-        <v>16285.24</v>
-      </c>
-      <c r="N3" s="192">
-        <v>14216.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="190">
+      <c r="C4" s="199">
         <v>60000</v>
       </c>
-      <c r="D4" s="190">
+      <c r="D4" s="199">
         <v>60000</v>
       </c>
-      <c r="E4" s="190">
+      <c r="E4" s="199">
         <v>60000</v>
       </c>
-      <c r="F4" s="190">
+      <c r="F4" s="199">
         <v>6000</v>
       </c>
       <c r="G4" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="H4" s="190">
-        <v>15450</v>
-      </c>
-      <c r="I4" s="190">
-        <v>15450</v>
-      </c>
-      <c r="J4" s="190">
-        <v>14250</v>
-      </c>
-      <c r="K4" s="190">
-        <v>-11050</v>
-      </c>
-      <c r="L4" s="191">
-        <f t="shared" si="0"/>
-        <v>-0.71521035598705507</v>
-      </c>
-      <c r="M4" s="192">
-        <v>24468.91</v>
-      </c>
-      <c r="N4" s="192">
-        <v>22435.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="190">
+        <v>41</v>
+      </c>
+      <c r="C5" s="199">
         <v>140000</v>
       </c>
-      <c r="D5" s="190">
+      <c r="D5" s="199">
         <v>100000</v>
       </c>
-      <c r="E5" s="190">
+      <c r="E5" s="199">
         <v>100000</v>
       </c>
-      <c r="F5" s="190">
+      <c r="F5" s="199">
         <v>8000</v>
       </c>
       <c r="G5" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="H5" s="190">
-        <v>38750</v>
-      </c>
-      <c r="I5" s="190">
-        <v>38750</v>
-      </c>
-      <c r="J5" s="190">
-        <v>47470</v>
-      </c>
-      <c r="K5" s="190">
-        <v>-16170</v>
-      </c>
-      <c r="L5" s="191">
-        <f t="shared" si="0"/>
-        <v>-0.41729032258064513</v>
-      </c>
-      <c r="M5" s="192">
-        <v>6835.92</v>
-      </c>
-      <c r="N5" s="192">
-        <v>6835.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="190">
+        <v>40</v>
+      </c>
+      <c r="C6" s="199">
         <v>10000</v>
       </c>
-      <c r="D6" s="190">
+      <c r="D6" s="199">
         <v>10000</v>
       </c>
-      <c r="E6" s="190">
+      <c r="E6" s="199">
         <v>10000</v>
       </c>
-      <c r="F6" s="190">
+      <c r="F6" s="199">
         <v>1000</v>
       </c>
       <c r="G6" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="H6" s="190">
-        <v>2521.3599999999997</v>
-      </c>
-      <c r="I6" s="190">
-        <v>2521.3599999999997</v>
-      </c>
-      <c r="J6" s="190">
-        <v>2758.8599999999997</v>
-      </c>
-      <c r="K6" s="190">
-        <v>260</v>
-      </c>
-      <c r="L6" s="191">
-        <f t="shared" si="0"/>
-        <v>0.10311895167687281</v>
-      </c>
-      <c r="M6" s="192">
-        <v>859.8</v>
-      </c>
-      <c r="N6" s="192">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="199">
         <v>200000</v>
       </c>
-      <c r="D7" s="190">
+      <c r="D7" s="199">
         <v>200000</v>
       </c>
-      <c r="E7" s="190">
+      <c r="E7" s="199">
         <v>200000</v>
       </c>
-      <c r="F7" s="190">
+      <c r="F7" s="199">
         <v>2000</v>
       </c>
       <c r="G7" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="H7" s="190">
-        <v>64850</v>
-      </c>
-      <c r="I7" s="190">
-        <v>64850</v>
-      </c>
-      <c r="J7" s="190">
-        <v>64260</v>
-      </c>
-      <c r="K7" s="190">
-        <v>-33980</v>
-      </c>
-      <c r="L7" s="191">
-        <f t="shared" si="0"/>
-        <v>-0.52397841171935233</v>
-      </c>
-      <c r="M7" s="192">
-        <v>84325.25</v>
-      </c>
-      <c r="N7" s="192">
-        <v>73661.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="190">
+        <v>36</v>
+      </c>
+      <c r="C8" s="199">
         <v>220000</v>
       </c>
-      <c r="D8" s="190">
+      <c r="D8" s="199">
         <v>220000</v>
       </c>
-      <c r="E8" s="190">
+      <c r="E8" s="199">
         <v>220000</v>
       </c>
-      <c r="F8" s="190">
+      <c r="F8" s="199">
         <v>15000</v>
       </c>
       <c r="G8" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.8181818181818177E-2</v>
       </c>
-      <c r="H8" s="190">
-        <v>105962.48999999999</v>
-      </c>
-      <c r="I8" s="190">
-        <v>105962.48999999999</v>
-      </c>
-      <c r="J8" s="190">
-        <v>105200</v>
-      </c>
-      <c r="K8" s="190">
-        <v>7140</v>
-      </c>
-      <c r="L8" s="191">
-        <f t="shared" si="0"/>
-        <v>6.7382335013078692E-2</v>
-      </c>
-      <c r="M8" s="192">
-        <v>91821.25</v>
-      </c>
-      <c r="N8" s="192">
-        <v>76700.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="190">
+        <v>37</v>
+      </c>
+      <c r="C9" s="199">
         <v>550000</v>
       </c>
-      <c r="D9" s="190">
+      <c r="D9" s="199">
         <v>460000</v>
       </c>
-      <c r="E9" s="190">
+      <c r="E9" s="199">
         <v>460000</v>
       </c>
-      <c r="F9" s="190">
+      <c r="F9" s="199">
         <v>33000</v>
       </c>
       <c r="G9" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.1739130434782611E-2</v>
       </c>
-      <c r="H9" s="190">
-        <v>90000</v>
-      </c>
-      <c r="I9" s="190">
-        <v>10880</v>
-      </c>
-      <c r="J9" s="190">
-        <v>0</v>
-      </c>
-      <c r="K9" s="190">
-        <v>-9860</v>
-      </c>
-      <c r="L9" s="191">
-        <f t="shared" si="0"/>
-        <v>-0.90625</v>
-      </c>
-      <c r="M9" s="192">
-        <v>0</v>
-      </c>
-      <c r="N9" s="192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="190">
+      <c r="C10" s="199">
         <v>600000</v>
       </c>
-      <c r="D10" s="190">
+      <c r="D10" s="199">
         <v>600000</v>
       </c>
-      <c r="E10" s="190">
+      <c r="E10" s="199">
         <v>600000</v>
       </c>
-      <c r="F10" s="190">
+      <c r="F10" s="199">
         <v>77600</v>
       </c>
       <c r="G10" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.12933333333333333</v>
       </c>
-      <c r="H10" s="190">
-        <v>497650</v>
-      </c>
-      <c r="I10" s="190">
-        <v>462050</v>
-      </c>
-      <c r="J10" s="190">
-        <v>475900</v>
-      </c>
-      <c r="K10" s="190">
-        <v>58270</v>
-      </c>
-      <c r="L10" s="191">
-        <f t="shared" si="0"/>
-        <v>0.12611189265231035</v>
-      </c>
-      <c r="M10" s="192">
-        <v>400378.94</v>
-      </c>
-      <c r="N10" s="192">
-        <v>334301.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="190">
+      <c r="C11" s="199">
         <v>220000</v>
       </c>
-      <c r="D11" s="190">
+      <c r="D11" s="199">
         <v>160000</v>
       </c>
-      <c r="E11" s="190">
+      <c r="E11" s="199">
         <v>160000</v>
       </c>
-      <c r="F11" s="190">
+      <c r="F11" s="199">
         <v>20000</v>
       </c>
       <c r="G11" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H11" s="190">
-        <v>198552.25</v>
-      </c>
-      <c r="I11" s="190">
-        <v>198552.25</v>
-      </c>
-      <c r="J11" s="190">
-        <v>155754.25</v>
-      </c>
-      <c r="K11" s="190">
-        <v>64107.889999999985</v>
-      </c>
-      <c r="L11" s="191">
-        <f t="shared" si="0"/>
-        <v>0.32287667352044608</v>
-      </c>
-      <c r="M11" s="192">
-        <v>134444.36000000002</v>
-      </c>
-      <c r="N11" s="192">
-        <v>106110.96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="190">
+      <c r="C12" s="199">
         <v>450000</v>
       </c>
-      <c r="D12" s="190">
+      <c r="D12" s="199">
         <v>410000</v>
       </c>
-      <c r="E12" s="190">
+      <c r="E12" s="199">
         <v>410000</v>
       </c>
-      <c r="F12" s="190">
+      <c r="F12" s="199">
         <v>76200</v>
       </c>
       <c r="G12" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.18585365853658536</v>
       </c>
-      <c r="H12" s="190">
-        <v>173190.21000000002</v>
-      </c>
-      <c r="I12" s="190">
-        <v>173190.21000000002</v>
-      </c>
-      <c r="J12" s="190">
-        <v>173447.84</v>
-      </c>
-      <c r="K12" s="190">
-        <v>30260</v>
-      </c>
-      <c r="L12" s="191">
-        <f t="shared" si="0"/>
-        <v>0.1747211923814862</v>
-      </c>
-      <c r="M12" s="192">
-        <v>152934.12</v>
-      </c>
-      <c r="N12" s="192">
-        <v>128219.87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="190">
+      <c r="C13" s="199">
         <v>500000</v>
       </c>
-      <c r="D13" s="190">
+      <c r="D13" s="199">
         <v>450000</v>
       </c>
-      <c r="E13" s="190">
+      <c r="E13" s="199">
         <v>450000</v>
       </c>
-      <c r="F13" s="190">
+      <c r="F13" s="199">
         <v>30000</v>
       </c>
       <c r="G13" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H13" s="190">
-        <v>365004.62</v>
-      </c>
-      <c r="I13" s="190">
-        <v>365004.62</v>
-      </c>
-      <c r="J13" s="190">
-        <v>322286.5</v>
-      </c>
-      <c r="K13" s="190">
-        <v>15150</v>
-      </c>
-      <c r="L13" s="191">
-        <f t="shared" si="0"/>
-        <v>4.1506323947351681E-2</v>
-      </c>
-      <c r="M13" s="192">
-        <v>364849.66</v>
-      </c>
-      <c r="N13" s="192">
-        <v>312763.50000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="190">
+      <c r="C14" s="199">
         <v>370000</v>
       </c>
-      <c r="D14" s="190">
+      <c r="D14" s="199">
         <v>350000</v>
       </c>
-      <c r="E14" s="190">
+      <c r="E14" s="199">
         <v>350000</v>
       </c>
-      <c r="F14" s="190">
+      <c r="F14" s="199">
         <v>61200</v>
       </c>
       <c r="G14" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.17485714285714285</v>
       </c>
-      <c r="H14" s="190">
-        <v>189512.78</v>
-      </c>
-      <c r="I14" s="190">
-        <v>189512.78</v>
-      </c>
-      <c r="J14" s="190">
-        <v>203931.25999999998</v>
-      </c>
-      <c r="K14" s="190">
-        <v>20470</v>
-      </c>
-      <c r="L14" s="191">
-        <f t="shared" si="0"/>
-        <v>0.10801382365875273</v>
-      </c>
-      <c r="M14" s="192">
-        <v>133394.48000000001</v>
-      </c>
-      <c r="N14" s="192">
-        <v>106351</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MASMOVIL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Origin_Files/2025.05 Objetivos TELECO INGENIERIA_rev.xlsx
+++ b/Origin_Files/2025.05 Objetivos TELECO INGENIERIA_rev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UX530\Desktop\TFM-GIT\Origin_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF122B-AB57-485C-BF17-C283489B2050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CB763F-DAFA-4559-9273-EA322D63699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj 2025 T1" sheetId="2" r:id="rId1"/>
@@ -1754,6 +1754,11 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1772,11 +1777,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2152,7 +2152,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2173,22 +2173,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
       <c r="O1" s="21" t="s">
         <v>10</v>
       </c>
@@ -2197,33 +2197,33 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="35.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="195" t="s">
+      <c r="A2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195" t="s">
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195" t="s">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="196"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="48.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="194"/>
+      <c r="A3" s="197"/>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2641,122 +2641,120 @@
       </c>
       <c r="B10" s="41">
         <f>SUM(B11:B14)</f>
-        <v>1570</v>
+        <v>1800</v>
       </c>
       <c r="C10" s="41">
         <f>SUM(C11:C14)</f>
-        <v>1480</v>
+        <v>1710</v>
       </c>
       <c r="D10" s="41">
         <f>SUM(D11:D14)</f>
-        <v>1480</v>
+        <v>1710</v>
       </c>
       <c r="E10" s="41">
         <f>SUM(E11:E14)</f>
-        <v>127.6</v>
+        <v>162.6</v>
       </c>
       <c r="F10" s="42">
         <f t="shared" si="0"/>
-        <v>8.621621621621621E-2</v>
+        <v>9.508771929824561E-2</v>
       </c>
       <c r="G10" s="125">
         <f>SUM(G11:G14)</f>
-        <v>758.46406000000002</v>
+        <v>956.5015699999999</v>
       </c>
       <c r="H10" s="125">
         <f>SUM(H11:H14)</f>
-        <v>643.74405999999999</v>
+        <v>841.78156999999999</v>
       </c>
       <c r="I10" s="125">
         <f>SUM(I11:I14)</f>
-        <v>645.35556000000008</v>
+        <v>841.15246000000002</v>
       </c>
       <c r="J10" s="125">
         <f>SUM(J11:J14)</f>
-        <v>21.566219999999937</v>
+        <v>61.424989999999944</v>
       </c>
       <c r="K10" s="126">
         <f t="shared" si="3"/>
-        <v>3.3501233393904928E-2</v>
+        <v>7.2970224330285521E-2</v>
       </c>
       <c r="L10" s="41">
         <f>SUM(L11:L14)</f>
-        <v>811.5359400000001</v>
+        <v>843.49842999999998</v>
       </c>
       <c r="M10" s="41">
         <f>SUM(M11:M14)</f>
-        <v>836.25594000000001</v>
+        <v>868.21843000000013</v>
       </c>
       <c r="N10" s="41">
         <f>SUM(N11:N14)</f>
-        <v>834.64444000000003</v>
+        <v>868.84753999999998</v>
       </c>
       <c r="O10" s="41">
         <f>SUM(O11:O14)</f>
-        <v>106.03378000000006</v>
+        <v>101.17501000000004</v>
       </c>
       <c r="P10" s="42">
         <f t="shared" si="4"/>
-        <v>0.12679584673562985</v>
+        <v>0.1165317465099192</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="191" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="53">
-        <f>C11</f>
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="C11" s="54">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="D11" s="54">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="E11" s="55">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F11" s="56">
         <f t="shared" si="0"/>
-        <v>6.8181818181818177E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G11" s="134">
-        <f>H11</f>
-        <v>105.96248999999999</v>
+        <v>304</v>
       </c>
       <c r="H11" s="135">
-        <v>105.96248999999999</v>
+        <v>304</v>
       </c>
       <c r="I11" s="135">
-        <v>105.20310000000001</v>
+        <v>301</v>
       </c>
       <c r="J11" s="136">
-        <v>7.1412299999999966</v>
+        <v>47</v>
       </c>
       <c r="K11" s="137">
         <f t="shared" si="3"/>
-        <v>6.7393942894320408E-2</v>
+        <v>0.15460526315789475</v>
       </c>
       <c r="L11" s="53">
         <f>B11-G11</f>
-        <v>114.03751000000001</v>
+        <v>146</v>
       </c>
       <c r="M11" s="54">
         <f t="shared" ref="M11:O14" si="6">C11-H11</f>
-        <v>114.03751000000001</v>
+        <v>146</v>
       </c>
       <c r="N11" s="54">
         <f t="shared" si="6"/>
-        <v>114.79689999999999</v>
+        <v>149</v>
       </c>
       <c r="O11" s="55">
         <f t="shared" si="6"/>
-        <v>7.8587700000000034</v>
+        <v>3</v>
       </c>
       <c r="P11" s="56">
         <f t="shared" si="4"/>
-        <v>6.8913903854968442E-2</v>
+        <v>2.0547945205479451E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3441,33 +3439,33 @@
       <c r="D24" s="64"/>
       <c r="E24" s="64">
         <f>E6+E10+E15+E21</f>
-        <v>312.60000000000002</v>
+        <v>347.6</v>
       </c>
       <c r="F24" s="65">
         <f>E24/C$32</f>
-        <v>0.1042</v>
+        <v>0.10761609907120744</v>
       </c>
       <c r="G24" s="143"/>
       <c r="H24" s="144"/>
       <c r="I24" s="144"/>
       <c r="J24" s="144">
         <f>J6+J10+J15+J21+10</f>
-        <v>138.19863999999998</v>
+        <v>178.05741</v>
       </c>
       <c r="K24" s="145">
         <f>J24/H$32</f>
-        <v>8.1542276145101081E-2</v>
+        <v>9.406855963745743E-2</v>
       </c>
       <c r="L24" s="63"/>
       <c r="M24" s="64"/>
       <c r="N24" s="64"/>
       <c r="O24" s="64">
         <f>O6+O10+O15+O21</f>
-        <v>184.40136000000001</v>
+        <v>179.54258999999996</v>
       </c>
       <c r="P24" s="65">
         <f>O24/M$32</f>
-        <v>0.141283120944906</v>
+        <v>0.13427230635333287</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3481,11 +3479,11 @@
       <c r="D25" s="30"/>
       <c r="E25" s="110">
         <f>(C32-C5)*B25</f>
-        <v>-13</v>
+        <v>16.900000000000002</v>
       </c>
       <c r="F25" s="16">
         <f t="shared" ref="F25:F30" si="10">E25/$C$32</f>
-        <v>-4.3333333333333331E-3</v>
+        <v>5.2321981424148616E-3</v>
       </c>
       <c r="G25" s="146">
         <f t="shared" ref="G25:G28" si="11">H25</f>
@@ -3498,7 +3496,7 @@
       </c>
       <c r="K25" s="149">
         <f>J25/H$32</f>
-        <v>3.3815006036786929E-2</v>
+        <v>3.0277140124764734E-2</v>
       </c>
       <c r="L25" s="28">
         <f t="shared" ref="L25:L28" si="12">M25</f>
@@ -3508,11 +3506,11 @@
       <c r="N25" s="30"/>
       <c r="O25" s="110">
         <f>E25-J25</f>
-        <v>-70.31</v>
+        <v>-40.409999999999997</v>
       </c>
       <c r="P25" s="16">
         <f>O25/$M$32</f>
-        <v>-5.3869538888630435E-2</v>
+        <v>-3.0220929194227301E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3538,7 +3536,7 @@
       </c>
       <c r="K26" s="149">
         <f t="shared" ref="K26:K31" si="13">J26/H$32</f>
-        <v>-2.7259697764780251E-3</v>
+        <v>-2.4407675340501322E-3</v>
       </c>
       <c r="L26" s="28">
         <f t="shared" si="12"/>
@@ -3552,7 +3550,7 @@
       </c>
       <c r="P26" s="16">
         <f t="shared" ref="P26:P30" si="14">O26/$M$32</f>
-        <v>3.539713691729094E-3</v>
+        <v>3.45510252109206E-3</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3567,7 +3565,7 @@
       </c>
       <c r="F27" s="16">
         <f t="shared" si="10"/>
-        <v>7.9333333333333339E-3</v>
+        <v>7.3684210526315788E-3</v>
       </c>
       <c r="G27" s="146">
         <f t="shared" si="11"/>
@@ -3580,7 +3578,7 @@
       </c>
       <c r="K27" s="149">
         <f>J27/H$32</f>
-        <v>-4.3249693639792041E-3</v>
+        <v>-3.8724731654951232E-3</v>
       </c>
       <c r="L27" s="28">
         <f t="shared" si="12"/>
@@ -3594,7 +3592,7 @@
       </c>
       <c r="P27" s="16">
         <f t="shared" si="14"/>
-        <v>2.3850927970460328E-2</v>
+        <v>2.3280809844501264E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3609,7 +3607,7 @@
       </c>
       <c r="F28" s="16">
         <f>E28/$C$32</f>
-        <v>-1.2133333333333333E-2</v>
+        <v>-1.1269349845201239E-2</v>
       </c>
       <c r="G28" s="146">
         <f t="shared" si="11"/>
@@ -3622,7 +3620,7 @@
       </c>
       <c r="K28" s="149">
         <f>J28/H$32</f>
-        <v>-8.4021232937331342E-3</v>
+        <v>-7.5230583733493254E-3</v>
       </c>
       <c r="L28" s="28">
         <f t="shared" si="12"/>
@@ -3636,7 +3634,7 @@
       </c>
       <c r="P28" s="16">
         <f t="shared" si="14"/>
-        <v>-1.6978366971583704E-2</v>
+        <v>-1.6572526378225115E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3668,7 +3666,7 @@
       </c>
       <c r="K29" s="149">
         <f>J29/H$32</f>
-        <v>6.4904042297095838E-3</v>
+        <v>5.8113512715479336E-3</v>
       </c>
       <c r="L29" s="28">
         <f>SUM(L30:L30)</f>
@@ -3688,7 +3686,7 @@
       </c>
       <c r="P29" s="16">
         <f t="shared" si="14"/>
-        <v>-8.4278897422121295E-3</v>
+        <v>-8.2264345740287147E-3</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3714,7 +3712,7 @@
       </c>
       <c r="K30" s="149">
         <f>J30/H$32</f>
-        <v>-3.9650469476044002E-3</v>
+        <v>-3.5502073222547378E-3</v>
       </c>
       <c r="L30" s="28">
         <f t="shared" ref="L30" si="16">M30</f>
@@ -3762,63 +3760,63 @@
       </c>
       <c r="B32" s="72">
         <f>B6+B15+B10+B21</f>
-        <v>3300</v>
+        <v>3530</v>
       </c>
       <c r="C32" s="73">
         <f>C6+C15+C10+C21</f>
-        <v>3000</v>
+        <v>3230</v>
       </c>
       <c r="D32" s="73">
         <f>D6+D15+D10+D21</f>
-        <v>3000</v>
+        <v>3230</v>
       </c>
       <c r="E32" s="73">
         <f>E24+E25+E26+E27+E28+E29+E30</f>
-        <v>287.00000000000006</v>
+        <v>351.90000000000003</v>
       </c>
       <c r="F32" s="74">
         <f>E32/C32</f>
-        <v>9.5666666666666691E-2</v>
+        <v>0.10894736842105264</v>
       </c>
       <c r="G32" s="154">
         <f>G6+G15+G10+G21</f>
-        <v>1809.529693</v>
+        <v>2007.5672029999998</v>
       </c>
       <c r="H32" s="155">
         <f>H6+H15+H10+H21</f>
-        <v>1694.8096929999999</v>
+        <v>1892.847203</v>
       </c>
       <c r="I32" s="155">
         <f>I6+I15+I10+I21</f>
-        <v>1609.599029</v>
+        <v>1805.395929</v>
       </c>
       <c r="J32" s="155">
         <f>J24+SUM(J25:J31)</f>
-        <v>173.59863999999999</v>
+        <v>213.45741000000001</v>
       </c>
       <c r="K32" s="156">
         <f>J32/H32</f>
-        <v>0.10242957702980283</v>
+        <v>0.1127705446386208</v>
       </c>
       <c r="L32" s="72">
         <f>L6+L15+L10+L21</f>
-        <v>1490.4703070000003</v>
+        <v>1522.4327970000002</v>
       </c>
       <c r="M32" s="73">
         <f>M6+M15+M10+M21</f>
-        <v>1305.1903070000001</v>
+        <v>1337.1527970000002</v>
       </c>
       <c r="N32" s="73">
         <f>N6+N15+N10+N21</f>
-        <v>1390.400971</v>
+        <v>1424.6040710000002</v>
       </c>
       <c r="O32" s="73">
         <f>O6+O15+O10+O21</f>
-        <v>184.40136000000001</v>
+        <v>179.54258999999996</v>
       </c>
       <c r="P32" s="74">
         <f>O32/M32</f>
-        <v>0.141283120944906</v>
+        <v>0.13427230635333287</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="20" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,53 +3825,53 @@
       </c>
       <c r="B33" s="72">
         <f>B32/B5</f>
-        <v>0.97058823529411764</v>
+        <v>1.0382352941176471</v>
       </c>
       <c r="C33" s="73">
         <f>C32/C5</f>
-        <v>0.967741935483871</v>
+        <v>1.0419354838709678</v>
       </c>
       <c r="D33" s="73">
         <f>D32/D5</f>
-        <v>0.967741935483871</v>
+        <v>1.0419354838709678</v>
       </c>
       <c r="E33" s="73">
         <f>E32/E5</f>
-        <v>0.85671641791044795</v>
+        <v>1.0504477611940299</v>
       </c>
       <c r="F33" s="74"/>
       <c r="G33" s="154">
         <f>G32/G5</f>
-        <v>1.2773150774117648</v>
+        <v>1.4171062609411764</v>
       </c>
       <c r="H33" s="155">
         <f>H32/H5</f>
-        <v>1.3121107300645163</v>
+        <v>1.4654300926451616</v>
       </c>
       <c r="I33" s="155">
         <f>I32/I5</f>
-        <v>1.2461411837419356</v>
+        <v>1.3977258805161292</v>
       </c>
       <c r="J33" s="155">
         <f>J32/J5</f>
-        <v>1.2436917492537312</v>
+        <v>1.5292471164179104</v>
       </c>
       <c r="K33" s="156"/>
       <c r="L33" s="72">
         <f>L32/L5</f>
-        <v>0.75149763378151269</v>
+        <v>0.7676131749579832</v>
       </c>
       <c r="M33" s="73">
         <f>M32/M5</f>
-        <v>0.72176422506912441</v>
+        <v>0.73943933474654377</v>
       </c>
       <c r="N33" s="73">
         <f>N32/N5</f>
-        <v>0.76888532958525335</v>
+        <v>0.78779948626728113</v>
       </c>
       <c r="O33" s="73">
         <f>O32/O5</f>
-        <v>0.94363169296375282</v>
+        <v>0.91876805117270777</v>
       </c>
       <c r="P33" s="74"/>
     </row>
@@ -4510,7 +4508,7 @@
       </c>
       <c r="F47" s="70">
         <f>E47/C$32</f>
-        <v>5.5666666666666668E-3</v>
+        <v>5.1702786377708972E-3</v>
       </c>
       <c r="G47" s="151"/>
       <c r="H47" s="152"/>
@@ -4679,63 +4677,63 @@
       </c>
       <c r="B51" s="82">
         <f>B32+B48</f>
-        <v>5100</v>
+        <v>5330</v>
       </c>
       <c r="C51" s="83">
         <f>C32+C48</f>
-        <v>4500</v>
+        <v>4730</v>
       </c>
       <c r="D51" s="83">
         <f>D32+D48</f>
-        <v>4500</v>
+        <v>4730</v>
       </c>
       <c r="E51" s="83">
         <f>E32+E48</f>
-        <v>437.00000000000006</v>
+        <v>501.90000000000003</v>
       </c>
       <c r="F51" s="84">
         <f>E51/C51</f>
-        <v>9.711111111111112E-2</v>
+        <v>0.10610993657505285</v>
       </c>
       <c r="G51" s="162">
         <f>G32+G48</f>
-        <v>2221.5483629999999</v>
+        <v>2419.585873</v>
       </c>
       <c r="H51" s="163">
         <f>H32+H48</f>
-        <v>1993.1023529999998</v>
+        <v>2191.1398629999999</v>
       </c>
       <c r="I51" s="163">
         <f>I32+I48</f>
-        <v>1926.059669</v>
+        <v>2121.856569</v>
       </c>
       <c r="J51" s="163">
         <f>J32+J48</f>
-        <v>141.4494</v>
+        <v>181.30817000000002</v>
       </c>
       <c r="K51" s="164">
         <f>J51/H51</f>
-        <v>7.0969461145380539E-2</v>
+        <v>8.2746050611192792E-2</v>
       </c>
       <c r="L51" s="82">
         <f>L32+L48</f>
-        <v>2176.9044057864712</v>
+        <v>2208.8668957864711</v>
       </c>
       <c r="M51" s="83">
         <f>M32+M48</f>
-        <v>1781.3504157864709</v>
+        <v>1813.3129057864712</v>
       </c>
       <c r="N51" s="83">
         <f>N32+N48</f>
-        <v>1851.3304004195413</v>
+        <v>1885.5335004195415</v>
       </c>
       <c r="O51" s="83">
         <f>O32+O48</f>
-        <v>282.70670640000003</v>
+        <v>277.84793639999998</v>
       </c>
       <c r="P51" s="84">
         <f>O51/M51</f>
-        <v>0.15870359020585192</v>
+        <v>0.15322669105445516</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4744,53 +4742,53 @@
       </c>
       <c r="B52" s="82">
         <f>B51/B4</f>
-        <v>0.98076923076923073</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="C52" s="83">
         <f>C51/C4</f>
-        <v>0.97826086956521741</v>
+        <v>1.0282608695652173</v>
       </c>
       <c r="D52" s="83">
         <f>D51/D4</f>
-        <v>0.97826086956521741</v>
+        <v>1.0282608695652173</v>
       </c>
       <c r="E52" s="83">
         <f>E51/E4</f>
-        <v>0.90103092783505168</v>
+        <v>1.0348453608247423</v>
       </c>
       <c r="F52" s="84"/>
       <c r="G52" s="162">
         <f>G51/G4</f>
-        <v>1.0253300136923078</v>
+        <v>1.1167319413846155</v>
       </c>
       <c r="H52" s="163">
         <f>H51/H4</f>
-        <v>1.0398794885217391</v>
+        <v>1.1432034067826087</v>
       </c>
       <c r="I52" s="163">
         <f>I51/I4</f>
-        <v>1.0049006968695653</v>
+        <v>1.1070556012173913</v>
       </c>
       <c r="J52" s="163">
         <f>J51/J4</f>
-        <v>0.69995579381443307</v>
+        <v>0.89719506804123728</v>
       </c>
       <c r="K52" s="164"/>
       <c r="L52" s="82">
         <f>L51/L4</f>
-        <v>0.71766079311641906</v>
+        <v>0.72819787773180367</v>
       </c>
       <c r="M52" s="83">
         <f>M51/M4</f>
-        <v>0.66385729780862268</v>
+        <v>0.67576878476514457</v>
       </c>
       <c r="N52" s="83">
         <f>N51/N4</f>
-        <v>0.68993679518740669</v>
+        <v>0.70268329208181668</v>
       </c>
       <c r="O52" s="83">
         <f>O51/O4</f>
-        <v>0.99925787240058916</v>
+        <v>0.98208401673048584</v>
       </c>
       <c r="P52" s="84"/>
     </row>
@@ -7560,63 +7558,63 @@
       </c>
       <c r="B106" s="103">
         <f>B51+B103</f>
-        <v>13900</v>
+        <v>14130</v>
       </c>
       <c r="C106" s="103">
         <f>C51+C103</f>
-        <v>13100</v>
+        <v>13330</v>
       </c>
       <c r="D106" s="103">
         <f>D51+D103</f>
-        <v>13100</v>
+        <v>13330</v>
       </c>
       <c r="E106" s="103">
         <f>E51+E103</f>
-        <v>1122.3</v>
+        <v>1187.2</v>
       </c>
       <c r="F106" s="104">
         <f>E106/C106</f>
-        <v>8.567175572519084E-2</v>
+        <v>8.9062265566391602E-2</v>
       </c>
       <c r="G106" s="103">
         <f>G51+G103</f>
-        <v>5921.9057730000004</v>
+        <v>6119.9432830000005</v>
       </c>
       <c r="H106" s="103">
         <f>H51+H103</f>
-        <v>5693.4597629999998</v>
+        <v>5891.497273</v>
       </c>
       <c r="I106" s="103">
         <f>I51+I103</f>
-        <v>5833.3286989999997</v>
+        <v>6029.125599</v>
       </c>
       <c r="J106" s="103">
         <f>J51+J103</f>
-        <v>630.21310999999992</v>
+        <v>670.07187999999996</v>
       </c>
       <c r="K106" s="104">
         <f>J106/H106</f>
-        <v>0.11069071113763836</v>
+        <v>0.11373541375820645</v>
       </c>
       <c r="L106" s="103">
         <f>L51+L103</f>
-        <v>7234.5469957864716</v>
+        <v>7266.5094857864715</v>
       </c>
       <c r="M106" s="103">
         <f>M51+M103</f>
-        <v>6638.9930057864713</v>
+        <v>6670.9554957864711</v>
       </c>
       <c r="N106" s="103">
         <f>N51+N103</f>
-        <v>6504.5193704195426</v>
+        <v>6538.7224704195423</v>
       </c>
       <c r="O106" s="103">
         <f>O51+O103</f>
-        <v>801.28805140000009</v>
+        <v>796.42928140000004</v>
       </c>
       <c r="P106" s="104">
         <f>O106/M106</f>
-        <v>0.12069421532777734</v>
+        <v>0.11938758726587864</v>
       </c>
     </row>
     <row r="107" spans="1:16" s="27" customFormat="1" ht="31.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7625,36 +7623,36 @@
       </c>
       <c r="B107" s="106">
         <f>+B106/B105</f>
-        <v>0.99285714285714288</v>
+        <v>1.0092857142857143</v>
       </c>
       <c r="C107" s="106">
         <f>+C106/C105</f>
-        <v>0.99242424242424243</v>
+        <v>1.0098484848484848</v>
       </c>
       <c r="D107" s="106">
         <f>+D106/D105</f>
-        <v>0.99242424242424243</v>
+        <v>1.0098484848484848</v>
       </c>
       <c r="E107" s="106">
         <f>+E106/E105</f>
-        <v>0.95923076923076922</v>
+        <v>1.0147008547008547</v>
       </c>
       <c r="F107" s="107"/>
       <c r="G107" s="106">
         <f t="shared" ref="G107:J107" si="94">+G106/G105</f>
-        <v>1.0151838468000001</v>
+        <v>1.0491331342285715</v>
       </c>
       <c r="H107" s="106">
         <f t="shared" si="94"/>
-        <v>1.0351745023636363</v>
+        <v>1.0711813223636364</v>
       </c>
       <c r="I107" s="106">
         <f t="shared" si="94"/>
-        <v>1.0606052179999998</v>
+        <v>1.0962046543636363</v>
       </c>
       <c r="J107" s="106">
         <f t="shared" si="94"/>
-        <v>1.2927448410256408</v>
+        <v>1.3745064205128203</v>
       </c>
       <c r="K107" s="107"/>
       <c r="L107" s="106">
@@ -7751,21 +7749,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:D9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.26953125" customWidth="1"/>
     <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" style="198" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" style="198" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="198" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="198" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" style="192" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="192" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="192" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="192" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.81640625" style="190" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7776,39 +7773,39 @@
       <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="198" t="s">
+      <c r="C1" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="198" t="s">
+      <c r="D1" s="192" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="198" t="s">
+      <c r="E1" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="192" t="s">
         <v>81</v>
       </c>
       <c r="G1" s="190" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="199">
+      <c r="C2" s="193">
         <v>60000</v>
       </c>
-      <c r="D2" s="199">
+      <c r="D2" s="193">
         <v>60000</v>
       </c>
-      <c r="E2" s="199">
+      <c r="E2" s="193">
         <v>60000</v>
       </c>
-      <c r="F2" s="199">
+      <c r="F2" s="193">
         <v>3000</v>
       </c>
       <c r="G2" s="189">
@@ -7816,23 +7813,23 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="199">
+      <c r="C3" s="193">
         <v>20000</v>
       </c>
-      <c r="D3" s="199">
+      <c r="D3" s="193">
         <v>20000</v>
       </c>
-      <c r="E3" s="199">
+      <c r="E3" s="193">
         <v>20000</v>
       </c>
-      <c r="F3" s="199">
+      <c r="F3" s="193">
         <v>2000</v>
       </c>
       <c r="G3" s="189">
@@ -7840,23 +7837,23 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="193">
         <v>60000</v>
       </c>
-      <c r="D4" s="199">
+      <c r="D4" s="193">
         <v>60000</v>
       </c>
-      <c r="E4" s="199">
+      <c r="E4" s="193">
         <v>60000</v>
       </c>
-      <c r="F4" s="199">
+      <c r="F4" s="193">
         <v>6000</v>
       </c>
       <c r="G4" s="189">
@@ -7864,23 +7861,23 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="199">
+      <c r="C5" s="193">
         <v>140000</v>
       </c>
-      <c r="D5" s="199">
+      <c r="D5" s="193">
         <v>100000</v>
       </c>
-      <c r="E5" s="199">
+      <c r="E5" s="193">
         <v>100000</v>
       </c>
-      <c r="F5" s="199">
+      <c r="F5" s="193">
         <v>8000</v>
       </c>
       <c r="G5" s="189">
@@ -7888,23 +7885,23 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="193">
         <v>10000</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="193">
         <v>10000</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="193">
         <v>10000</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="193">
         <v>1000</v>
       </c>
       <c r="G6" s="189">
@@ -7919,16 +7916,16 @@
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="199">
+      <c r="C7" s="193">
         <v>200000</v>
       </c>
-      <c r="D7" s="199">
+      <c r="D7" s="193">
         <v>200000</v>
       </c>
-      <c r="E7" s="199">
+      <c r="E7" s="193">
         <v>200000</v>
       </c>
-      <c r="F7" s="199">
+      <c r="F7" s="193">
         <v>2000</v>
       </c>
       <c r="G7" s="189">
@@ -7943,21 +7940,21 @@
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="199">
-        <v>220000</v>
-      </c>
-      <c r="D8" s="199">
-        <v>220000</v>
-      </c>
-      <c r="E8" s="199">
-        <v>220000</v>
-      </c>
-      <c r="F8" s="199">
-        <v>15000</v>
+      <c r="C8" s="193">
+        <v>450000</v>
+      </c>
+      <c r="D8" s="193">
+        <v>450000</v>
+      </c>
+      <c r="E8" s="193">
+        <v>450000</v>
+      </c>
+      <c r="F8" s="193">
+        <v>50000</v>
       </c>
       <c r="G8" s="189">
         <f t="shared" si="0"/>
-        <v>6.8181818181818177E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7967,16 +7964,16 @@
       <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="199">
+      <c r="C9" s="193">
         <v>550000</v>
       </c>
-      <c r="D9" s="199">
+      <c r="D9" s="193">
         <v>460000</v>
       </c>
-      <c r="E9" s="199">
+      <c r="E9" s="193">
         <v>460000</v>
       </c>
-      <c r="F9" s="199">
+      <c r="F9" s="193">
         <v>33000</v>
       </c>
       <c r="G9" s="189">
@@ -7991,16 +7988,16 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="193">
         <v>600000</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="193">
         <v>600000</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="193">
         <v>600000</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="193">
         <v>77600</v>
       </c>
       <c r="G10" s="189">
@@ -8008,23 +8005,23 @@
         <v>0.12933333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="193">
         <v>220000</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="193">
         <v>160000</v>
       </c>
-      <c r="E11" s="199">
+      <c r="E11" s="193">
         <v>160000</v>
       </c>
-      <c r="F11" s="199">
+      <c r="F11" s="193">
         <v>20000</v>
       </c>
       <c r="G11" s="189">
@@ -8032,23 +8029,23 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="193">
         <v>450000</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="193">
         <v>410000</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="193">
         <v>410000</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="193">
         <v>76200</v>
       </c>
       <c r="G12" s="189">
@@ -8056,23 +8053,23 @@
         <v>0.18585365853658536</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="193">
         <v>500000</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="193">
         <v>450000</v>
       </c>
-      <c r="E13" s="199">
+      <c r="E13" s="193">
         <v>450000</v>
       </c>
-      <c r="F13" s="199">
+      <c r="F13" s="193">
         <v>30000</v>
       </c>
       <c r="G13" s="189">
@@ -8080,23 +8077,23 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="199">
+      <c r="C14" s="193">
         <v>370000</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="193">
         <v>350000</v>
       </c>
-      <c r="E14" s="199">
+      <c r="E14" s="193">
         <v>350000</v>
       </c>
-      <c r="F14" s="199">
+      <c r="F14" s="193">
         <v>61200</v>
       </c>
       <c r="G14" s="189">
@@ -8105,13 +8102,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="MASMOVIL"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Origin_Files/2025.05 Objetivos TELECO INGENIERIA_rev.xlsx
+++ b/Origin_Files/2025.05 Objetivos TELECO INGENIERIA_rev.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UX530\Desktop\TFM-GIT\Origin_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CB763F-DAFA-4559-9273-EA322D63699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8275F194-9044-48E6-86C6-033A396246F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj 2025 T1" sheetId="2" r:id="rId1"/>
-    <sheet name="Resumen Objetivos" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Resumen Objetivos" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Resumen Objetivos'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Resumen Objetivos'!$A$1:$G$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Obj 2025 T1'!$A$5:$P$105</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Obj 2025 T1'!$1:$3</definedName>
   </definedNames>
@@ -193,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="88">
   <si>
     <t>PROYECTOS</t>
   </si>
@@ -455,6 +456,9 @@
   <si>
     <t>PREVISIÓN 2025</t>
   </si>
+  <si>
+    <t>xxx €</t>
+  </si>
 </sst>
 </file>
 
@@ -466,7 +470,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,6 +710,133 @@
     <font>
       <sz val="16"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1190,7 +1321,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1523,12 +1654,6 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="9" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="9" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1620,9 +1745,6 @@
     <xf numFmtId="165" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1754,11 +1876,23 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,6 +1910,312 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="37" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="37" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="38" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="39" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="39" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="39" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="40" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="40" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="43" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="43" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="51" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="53" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="54" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="54" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="40" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1784,7 +2224,22 @@
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2150,9 +2605,9 @@
   </sheetPr>
   <dimension ref="A1:AL107"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" sqref="A1:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2173,57 +2628,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
       <c r="O1" s="21" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="35.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="198" t="s">
+      <c r="A2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="199" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="200"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="48.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="197"/>
+      <c r="A3" s="198"/>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2294,41 +2749,41 @@
         <f t="shared" ref="F4:F22" si="0">E4/C4</f>
         <v>0.10543478260869565</v>
       </c>
-      <c r="G4" s="118">
+      <c r="G4" s="116">
         <f t="shared" ref="G4:J5" si="1">(B4/12)*$P$1</f>
-        <v>2166.6666666666665</v>
-      </c>
-      <c r="H4" s="119">
+        <v>2600</v>
+      </c>
+      <c r="H4" s="117">
         <f t="shared" si="1"/>
-        <v>1916.6666666666665</v>
-      </c>
-      <c r="I4" s="119">
+        <v>2300</v>
+      </c>
+      <c r="I4" s="117">
         <f t="shared" si="1"/>
-        <v>1916.6666666666665</v>
-      </c>
-      <c r="J4" s="119">
+        <v>2300</v>
+      </c>
+      <c r="J4" s="117">
         <f t="shared" si="1"/>
-        <v>202.08333333333331</v>
-      </c>
-      <c r="K4" s="120">
+        <v>242.5</v>
+      </c>
+      <c r="K4" s="118">
         <f>J4/H4</f>
         <v>0.10543478260869565</v>
       </c>
       <c r="L4" s="32">
         <f>B4-G4</f>
-        <v>3033.3333333333335</v>
+        <v>2600</v>
       </c>
       <c r="M4" s="33">
         <f t="shared" ref="M4:O5" si="2">C4-H4</f>
-        <v>2683.3333333333335</v>
+        <v>2300</v>
       </c>
       <c r="N4" s="33">
         <f t="shared" si="2"/>
-        <v>2683.3333333333335</v>
+        <v>2300</v>
       </c>
       <c r="O4" s="33">
         <f t="shared" si="2"/>
-        <v>282.91666666666669</v>
+        <v>242.5</v>
       </c>
       <c r="P4" s="34">
         <f>O4/M4</f>
@@ -2355,45 +2810,45 @@
         <f t="shared" si="0"/>
         <v>0.10806451612903226</v>
       </c>
-      <c r="G5" s="121">
+      <c r="G5" s="119">
         <f>(B5/12)*$P$1</f>
-        <v>1416.6666666666665</v>
-      </c>
-      <c r="H5" s="122">
+        <v>1700</v>
+      </c>
+      <c r="H5" s="120">
         <f>(C5/12)*$P$1</f>
-        <v>1291.6666666666665</v>
-      </c>
-      <c r="I5" s="122">
+        <v>1550</v>
+      </c>
+      <c r="I5" s="120">
         <f t="shared" si="1"/>
-        <v>1291.6666666666665</v>
-      </c>
-      <c r="J5" s="122">
+        <v>1550</v>
+      </c>
+      <c r="J5" s="120">
         <f>(E5/12)*$P$1</f>
-        <v>139.58333333333334</v>
-      </c>
-      <c r="K5" s="123">
+        <v>167.5</v>
+      </c>
+      <c r="K5" s="121">
         <f>J5/H5</f>
-        <v>0.10806451612903228</v>
+        <v>0.10806451612903226</v>
       </c>
       <c r="L5" s="36">
         <f>B5-G5</f>
-        <v>1983.3333333333335</v>
+        <v>1700</v>
       </c>
       <c r="M5" s="37">
         <f t="shared" si="2"/>
-        <v>1808.3333333333335</v>
+        <v>1550</v>
       </c>
       <c r="N5" s="37">
         <f t="shared" si="2"/>
-        <v>1808.3333333333335</v>
+        <v>1550</v>
       </c>
       <c r="O5" s="37">
         <f t="shared" si="2"/>
-        <v>195.41666666666666</v>
+        <v>167.5</v>
       </c>
       <c r="P5" s="38">
         <f>O5/M5</f>
-        <v>0.10806451612903224</v>
+        <v>0.10806451612903226</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2420,23 +2875,23 @@
         <f t="shared" si="0"/>
         <v>0.13063063063063063</v>
       </c>
-      <c r="G6" s="124">
+      <c r="G6" s="122">
         <f>SUM(G7:G9)</f>
         <v>727.70760999999993</v>
       </c>
-      <c r="H6" s="125">
+      <c r="H6" s="123">
         <f>SUM(H7:H9)</f>
         <v>727.70760999999993</v>
       </c>
-      <c r="I6" s="125">
+      <c r="I6" s="123">
         <f>SUM(I7:I9)</f>
         <v>699.66560000000004</v>
       </c>
-      <c r="J6" s="125">
+      <c r="J6" s="123">
         <f>SUM(J7:J9)</f>
         <v>65.881830000000036</v>
       </c>
-      <c r="K6" s="126">
+      <c r="K6" s="124">
         <f t="shared" ref="K6:K22" si="3">J6/H6</f>
         <v>9.0533380570254091E-2</v>
       </c>
@@ -2481,20 +2936,20 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="G7" s="127">
+      <c r="G7" s="125">
         <f>H7</f>
         <v>365.00461999999999</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="126">
         <v>365.00461999999999</v>
       </c>
-      <c r="I7" s="128">
+      <c r="I7" s="126">
         <v>322.28649999999999</v>
       </c>
-      <c r="J7" s="129">
+      <c r="J7" s="127">
         <v>15.154960000000044</v>
       </c>
-      <c r="K7" s="130">
+      <c r="K7" s="128">
         <f>J7/H7</f>
         <v>4.1519912816446118E-2</v>
       </c>
@@ -2539,20 +2994,20 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G8" s="127">
+      <c r="G8" s="125">
         <f>H8</f>
         <v>189.51277999999999</v>
       </c>
-      <c r="H8" s="131">
+      <c r="H8" s="129">
         <v>189.51277999999999</v>
       </c>
-      <c r="I8" s="131">
+      <c r="I8" s="129">
         <v>203.93125999999998</v>
       </c>
-      <c r="J8" s="132">
+      <c r="J8" s="130">
         <v>20.470780000000001</v>
       </c>
-      <c r="K8" s="133">
+      <c r="K8" s="131">
         <f t="shared" si="3"/>
         <v>0.10801793947616621</v>
       </c>
@@ -2597,20 +3052,20 @@
         <f t="shared" si="0"/>
         <v>0.18055555555555555</v>
       </c>
-      <c r="G9" s="127">
+      <c r="G9" s="125">
         <f>H9</f>
         <v>173.19020999999998</v>
       </c>
-      <c r="H9" s="128">
+      <c r="H9" s="126">
         <v>173.19020999999998</v>
       </c>
-      <c r="I9" s="128">
+      <c r="I9" s="126">
         <v>173.44783999999999</v>
       </c>
-      <c r="J9" s="129">
+      <c r="J9" s="127">
         <v>30.256089999999997</v>
       </c>
-      <c r="K9" s="130">
+      <c r="K9" s="128">
         <f t="shared" si="3"/>
         <v>0.17469861604763917</v>
       </c>
@@ -2659,25 +3114,25 @@
         <f t="shared" si="0"/>
         <v>9.508771929824561E-2</v>
       </c>
-      <c r="G10" s="125">
+      <c r="G10" s="123">
         <f>SUM(G11:G14)</f>
         <v>956.5015699999999</v>
       </c>
-      <c r="H10" s="125">
+      <c r="H10" s="123">
         <f>SUM(H11:H14)</f>
         <v>841.78156999999999</v>
       </c>
-      <c r="I10" s="125">
+      <c r="I10" s="123">
         <f>SUM(I11:I14)</f>
-        <v>841.15246000000002</v>
-      </c>
-      <c r="J10" s="125">
+        <v>852.03246000000013</v>
+      </c>
+      <c r="J10" s="123">
         <f>SUM(J11:J14)</f>
-        <v>61.424989999999944</v>
-      </c>
-      <c r="K10" s="126">
+        <v>97.870459999999952</v>
+      </c>
+      <c r="K10" s="124">
         <f t="shared" si="3"/>
-        <v>7.2970224330285521E-2</v>
+        <v>0.11626586217609866</v>
       </c>
       <c r="L10" s="41">
         <f>SUM(L11:L14)</f>
@@ -2689,19 +3144,19 @@
       </c>
       <c r="N10" s="41">
         <f>SUM(N11:N14)</f>
-        <v>868.84753999999998</v>
+        <v>857.96753999999987</v>
       </c>
       <c r="O10" s="41">
         <f>SUM(O11:O14)</f>
-        <v>101.17501000000004</v>
+        <v>64.729540000000043</v>
       </c>
       <c r="P10" s="42">
         <f t="shared" si="4"/>
-        <v>0.1165317465099192</v>
+        <v>7.4554441328779475E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="191" t="s">
+      <c r="A11" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="53">
@@ -2720,19 +3175,19 @@
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="132">
         <v>304</v>
       </c>
-      <c r="H11" s="135">
+      <c r="H11" s="133">
         <v>304</v>
       </c>
-      <c r="I11" s="135">
+      <c r="I11" s="133">
         <v>301</v>
       </c>
-      <c r="J11" s="136">
+      <c r="J11" s="134">
         <v>47</v>
       </c>
-      <c r="K11" s="137">
+      <c r="K11" s="135">
         <f t="shared" si="3"/>
         <v>0.15460526315789475</v>
       </c>
@@ -2778,22 +3233,22 @@
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="132">
         <f>H12</f>
         <v>64.851569999999995</v>
       </c>
-      <c r="H12" s="135">
+      <c r="H12" s="133">
         <v>64.851569999999995</v>
       </c>
-      <c r="I12" s="135">
+      <c r="I12" s="133">
         <v>64.256110000000007</v>
       </c>
-      <c r="J12" s="136">
-        <v>-33.983270000000005</v>
-      </c>
-      <c r="K12" s="137">
+      <c r="J12" s="134">
+        <v>-5.3</v>
+      </c>
+      <c r="K12" s="135">
         <f t="shared" si="3"/>
-        <v>-0.52401614949337394</v>
+        <v>-8.1725083910844418E-2</v>
       </c>
       <c r="L12" s="53">
         <f>B12-G12</f>
@@ -2809,11 +3264,11 @@
       </c>
       <c r="O12" s="55">
         <f t="shared" si="6"/>
-        <v>35.983270000000005</v>
+        <v>7.3</v>
       </c>
       <c r="P12" s="56">
         <f t="shared" si="4"/>
-        <v>0.26625000379212693</v>
+        <v>5.4014685927169105E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2836,20 +3291,22 @@
         <f t="shared" si="0"/>
         <v>7.1739130434782611E-2</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="132">
         <v>90</v>
       </c>
-      <c r="H13" s="135">
+      <c r="H13" s="133">
         <f>10880/1000</f>
         <v>10.88</v>
       </c>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136">
-        <v>-9.8622000000000014</v>
-      </c>
-      <c r="K13" s="137">
-        <f t="shared" si="3"/>
-        <v>-0.90645220588235298</v>
+      <c r="I13" s="133">
+        <v>10.88</v>
+      </c>
+      <c r="J13" s="134">
+        <v>-2.1</v>
+      </c>
+      <c r="K13" s="135">
+        <f>J13/H13</f>
+        <v>-0.19301470588235295</v>
       </c>
       <c r="L13" s="53">
         <f>B13-G13</f>
@@ -2861,15 +3318,15 @@
       </c>
       <c r="N13" s="54">
         <f t="shared" si="6"/>
-        <v>460</v>
+        <v>449.12</v>
       </c>
       <c r="O13" s="55">
         <f t="shared" si="6"/>
-        <v>42.862200000000001</v>
+        <v>35.1</v>
       </c>
       <c r="P13" s="56">
         <f t="shared" si="4"/>
-        <v>9.5435963662272888E-2</v>
+        <v>7.8152832205201278E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2886,26 +3343,26 @@
       <c r="D14" s="54">
         <v>600</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="55">
         <v>77.599999999999994</v>
       </c>
       <c r="F14" s="56">
         <f t="shared" si="0"/>
         <v>0.12933333333333333</v>
       </c>
-      <c r="G14" s="134">
+      <c r="G14" s="132">
         <v>497.65</v>
       </c>
-      <c r="H14" s="135">
+      <c r="H14" s="133">
         <v>462.05</v>
       </c>
-      <c r="I14" s="135">
+      <c r="I14" s="133">
         <v>475.89635000000004</v>
       </c>
-      <c r="J14" s="136">
+      <c r="J14" s="134">
         <v>58.27045999999995</v>
       </c>
-      <c r="K14" s="137">
+      <c r="K14" s="135">
         <f t="shared" si="3"/>
         <v>0.12611288821556096</v>
       </c>
@@ -2954,25 +3411,25 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="123">
         <f>SUM(G16:G20)</f>
         <v>124.805773</v>
       </c>
-      <c r="H15" s="125">
+      <c r="H15" s="123">
         <f>SUM(H16:H20)</f>
         <v>124.805773</v>
       </c>
-      <c r="I15" s="125">
+      <c r="I15" s="123">
         <f>SUM(I16:I20)</f>
         <v>108.82361900000001</v>
       </c>
-      <c r="J15" s="125">
+      <c r="J15" s="123">
         <f>SUM(J16:J20)</f>
-        <v>-23.357299999999967</v>
-      </c>
-      <c r="K15" s="126">
+        <v>-3.7426799999999987</v>
+      </c>
+      <c r="K15" s="124">
         <f t="shared" si="3"/>
-        <v>-0.18714919541422148</v>
+        <v>-2.9988035889974406E-2</v>
       </c>
       <c r="L15" s="41">
         <f>SUM(L16:L20)</f>
@@ -2988,11 +3445,11 @@
       </c>
       <c r="O15" s="41">
         <f>SUM(O16:O20)</f>
-        <v>43.357299999999967</v>
+        <v>23.74268</v>
       </c>
       <c r="P15" s="42">
         <f t="shared" si="4"/>
-        <v>0.34632028200469628</v>
+        <v>0.18964676382402199</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3016,20 +3473,20 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G16" s="134">
+      <c r="G16" s="132">
         <f>H16</f>
         <v>53.588000000000001</v>
       </c>
-      <c r="H16" s="135">
+      <c r="H16" s="133">
         <v>53.588000000000001</v>
       </c>
-      <c r="I16" s="135">
+      <c r="I16" s="133">
         <v>44.341000000000001</v>
       </c>
-      <c r="J16" s="136">
+      <c r="J16" s="134">
         <v>2.9910000000000014</v>
       </c>
-      <c r="K16" s="137">
+      <c r="K16" s="135">
         <f t="shared" si="3"/>
         <v>5.5814734642084071E-2</v>
       </c>
@@ -3075,22 +3532,22 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G17" s="134">
+      <c r="G17" s="132">
         <f>H17</f>
         <v>15.449669999999999</v>
       </c>
-      <c r="H17" s="135">
+      <c r="H17" s="133">
         <v>15.449669999999999</v>
       </c>
-      <c r="I17" s="135">
+      <c r="I17" s="133">
         <v>14.249670000000002</v>
       </c>
-      <c r="J17" s="136">
-        <v>-11.050369999999996</v>
-      </c>
-      <c r="K17" s="137">
+      <c r="J17" s="134">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="K17" s="135">
         <f t="shared" si="3"/>
-        <v>-0.71524958138264416</v>
+        <v>-0.28479572702847378</v>
       </c>
       <c r="L17" s="53">
         <f>B17-G17</f>
@@ -3106,11 +3563,11 @@
       </c>
       <c r="O17" s="55">
         <f t="shared" si="7"/>
-        <v>17.050369999999994</v>
+        <v>10.4</v>
       </c>
       <c r="P17" s="56">
         <f t="shared" si="4"/>
-        <v>0.38272151968346796</v>
+        <v>0.23344383756528853</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3134,20 +3591,20 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G18" s="134">
+      <c r="G18" s="132">
         <f t="shared" ref="G18:G20" si="8">H18</f>
         <v>14.5</v>
       </c>
-      <c r="H18" s="128">
+      <c r="H18" s="126">
         <v>14.5</v>
       </c>
-      <c r="I18" s="128">
-        <v>0</v>
-      </c>
-      <c r="J18" s="129">
+      <c r="I18" s="126">
+        <v>0</v>
+      </c>
+      <c r="J18" s="127">
         <v>0.6147600000000002</v>
       </c>
-      <c r="K18" s="137">
+      <c r="K18" s="135">
         <f t="shared" si="3"/>
         <v>4.2397241379310356E-2</v>
       </c>
@@ -3193,20 +3650,20 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G19" s="134">
+      <c r="G19" s="132">
         <f t="shared" si="8"/>
         <v>2.5213599999999996</v>
       </c>
-      <c r="H19" s="128">
+      <c r="H19" s="126">
         <v>2.5213599999999996</v>
       </c>
-      <c r="I19" s="128">
+      <c r="I19" s="126">
         <v>2.7588599999999999</v>
       </c>
-      <c r="J19" s="129">
+      <c r="J19" s="127">
         <v>0.26156000000000001</v>
       </c>
-      <c r="K19" s="137">
+      <c r="K19" s="135">
         <f t="shared" si="3"/>
         <v>0.10373766538693406</v>
       </c>
@@ -3251,22 +3708,22 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="G20" s="134">
+      <c r="G20" s="132">
         <f t="shared" si="8"/>
         <v>38.746742999999995</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="136">
         <v>38.746742999999995</v>
       </c>
-      <c r="I20" s="138">
+      <c r="I20" s="136">
         <v>47.474089000000006</v>
       </c>
-      <c r="J20" s="139">
-        <v>-16.174249999999972</v>
-      </c>
-      <c r="K20" s="137">
+      <c r="J20" s="137">
+        <v>-3.21</v>
+      </c>
+      <c r="K20" s="135">
         <f t="shared" si="3"/>
-        <v>-0.41743508609226782</v>
+        <v>-8.284567298985622E-2</v>
       </c>
       <c r="L20" s="57">
         <f>B20-G20</f>
@@ -3282,11 +3739,11 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>24.174249999999972</v>
+        <v>11.21</v>
       </c>
       <c r="P20" s="56">
         <f t="shared" si="4"/>
-        <v>0.39466064637183246</v>
+        <v>0.18301067647717084</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3313,23 +3770,23 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="G21" s="125">
+      <c r="G21" s="123">
         <f>SUM(G22)</f>
         <v>198.55224999999999</v>
       </c>
-      <c r="H21" s="125">
+      <c r="H21" s="123">
         <f>SUM(H22)</f>
         <v>198.55224999999999</v>
       </c>
-      <c r="I21" s="125">
+      <c r="I21" s="123">
         <f>SUM(I22)</f>
         <v>155.75425000000001</v>
       </c>
-      <c r="J21" s="125">
+      <c r="J21" s="123">
         <f>SUM(J22)</f>
         <v>64.107889999999983</v>
       </c>
-      <c r="K21" s="126">
+      <c r="K21" s="124">
         <f t="shared" si="3"/>
         <v>0.32287667352044608</v>
       </c>
@@ -3367,27 +3824,27 @@
       <c r="D22" s="61">
         <v>160</v>
       </c>
-      <c r="E22" s="112">
+      <c r="E22" s="62">
         <v>20</v>
       </c>
       <c r="F22" s="56">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="G22" s="140">
+      <c r="G22" s="138">
         <f>H22</f>
         <v>198.55224999999999</v>
       </c>
-      <c r="H22" s="141">
+      <c r="H22" s="139">
         <v>198.55224999999999</v>
       </c>
-      <c r="I22" s="141">
+      <c r="I22" s="139">
         <v>155.75425000000001</v>
       </c>
-      <c r="J22" s="142">
+      <c r="J22" s="140">
         <v>64.107889999999983</v>
       </c>
-      <c r="K22" s="137">
+      <c r="K22" s="135">
         <f t="shared" si="3"/>
         <v>0.32287667352044608</v>
       </c>
@@ -3419,11 +3876,11 @@
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="42"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="124"/>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
@@ -3436,8 +3893,8 @@
       </c>
       <c r="B24" s="63"/>
       <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64">
+      <c r="D24" s="190"/>
+      <c r="E24" s="190">
         <f>E6+E10+E15+E21</f>
         <v>347.6</v>
       </c>
@@ -3445,27 +3902,27 @@
         <f>E24/C$32</f>
         <v>0.10761609907120744</v>
       </c>
-      <c r="G24" s="143"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144">
+      <c r="G24" s="191"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="192">
         <f>J6+J10+J15+J21+10</f>
-        <v>178.05741</v>
-      </c>
-      <c r="K24" s="145">
+        <v>234.11749999999995</v>
+      </c>
+      <c r="K24" s="193">
         <f>J24/H$32</f>
-        <v>9.406855963745743E-2</v>
-      </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64">
+        <v>0.12368536648332937</v>
+      </c>
+      <c r="L24" s="194"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="190">
         <f>O6+O10+O15+O21</f>
-        <v>179.54258999999996</v>
+        <v>123.48250000000003</v>
       </c>
       <c r="P24" s="65">
         <f>O24/M$32</f>
-        <v>0.13427230635333287</v>
+        <v>9.2347337026136442E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3477,7 +3934,7 @@
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="110">
+      <c r="E25" s="29">
         <f>(C32-C5)*B25</f>
         <v>16.900000000000002</v>
       </c>
@@ -3485,16 +3942,16 @@
         <f t="shared" ref="F25:F30" si="10">E25/$C$32</f>
         <v>5.2321981424148616E-3</v>
       </c>
-      <c r="G25" s="146">
+      <c r="G25" s="143">
         <f t="shared" ref="G25:G28" si="11">H25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="148">
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="147">
         <v>57.31</v>
       </c>
-      <c r="K25" s="149">
+      <c r="K25" s="146">
         <f>J25/H$32</f>
         <v>3.0277140124764734E-2</v>
       </c>
@@ -3504,7 +3961,7 @@
       </c>
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
-      <c r="O25" s="110">
+      <c r="O25" s="29">
         <f>E25-J25</f>
         <v>-40.409999999999997</v>
       </c>
@@ -3525,16 +3982,16 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G26" s="146">
+      <c r="G26" s="143">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="150">
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="147">
         <v>-4.62</v>
       </c>
-      <c r="K26" s="149">
+      <c r="K26" s="146">
         <f t="shared" ref="K26:K31" si="13">J26/H$32</f>
         <v>-2.4407675340501322E-3</v>
       </c>
@@ -3567,16 +4024,16 @@
         <f t="shared" si="10"/>
         <v>7.3684210526315788E-3</v>
       </c>
-      <c r="G27" s="146">
+      <c r="G27" s="143">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="150">
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="147">
         <v>-7.33</v>
       </c>
-      <c r="K27" s="149">
+      <c r="K27" s="146">
         <f>J27/H$32</f>
         <v>-3.8724731654951232E-3</v>
       </c>
@@ -3609,16 +4066,16 @@
         <f>E28/$C$32</f>
         <v>-1.1269349845201239E-2</v>
       </c>
-      <c r="G28" s="146">
+      <c r="G28" s="143">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="150">
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="147">
         <v>-14.24</v>
       </c>
-      <c r="K28" s="149">
+      <c r="K28" s="146">
         <f>J28/H$32</f>
         <v>-7.5230583733493254E-3</v>
       </c>
@@ -3649,22 +4106,22 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G29" s="146">
+      <c r="G29" s="143">
         <f>SUM(G30:G30)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="147">
+      <c r="H29" s="144">
         <f>SUM(H30:H30)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="147">
+      <c r="I29" s="144">
         <f>SUM(I30:I30)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="150">
+      <c r="J29" s="147">
         <v>11</v>
       </c>
-      <c r="K29" s="149">
+      <c r="K29" s="146">
         <f>J29/H$32</f>
         <v>5.8113512715479336E-3</v>
       </c>
@@ -3701,16 +4158,16 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G30" s="146">
+      <c r="G30" s="143">
         <f t="shared" ref="G30" si="15">H30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="150">
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="147">
         <v>-6.72</v>
       </c>
-      <c r="K30" s="149">
+      <c r="K30" s="146">
         <f>J30/H$32</f>
         <v>-3.5502073222547378E-3</v>
       </c>
@@ -3738,13 +4195,13 @@
         <f>E31/C$32</f>
         <v>0</v>
       </c>
-      <c r="G31" s="151"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153">
-        <v>0</v>
-      </c>
-      <c r="K31" s="133">
+      <c r="G31" s="148"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="150">
+        <v>0</v>
+      </c>
+      <c r="K31" s="131">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -3778,25 +4235,25 @@
         <f>E32/C32</f>
         <v>0.10894736842105264</v>
       </c>
-      <c r="G32" s="154">
+      <c r="G32" s="151">
         <f>G6+G15+G10+G21</f>
         <v>2007.5672029999998</v>
       </c>
-      <c r="H32" s="155">
+      <c r="H32" s="152">
         <f>H6+H15+H10+H21</f>
         <v>1892.847203</v>
       </c>
-      <c r="I32" s="155">
+      <c r="I32" s="152">
         <f>I6+I15+I10+I21</f>
-        <v>1805.395929</v>
-      </c>
-      <c r="J32" s="155">
+        <v>1816.2759290000001</v>
+      </c>
+      <c r="J32" s="152">
         <f>J24+SUM(J25:J31)</f>
-        <v>213.45741000000001</v>
-      </c>
-      <c r="K32" s="156">
+        <v>269.51749999999993</v>
+      </c>
+      <c r="K32" s="153">
         <f>J32/H32</f>
-        <v>0.1127705446386208</v>
+        <v>0.14238735148449272</v>
       </c>
       <c r="L32" s="72">
         <f>L6+L15+L10+L21</f>
@@ -3808,15 +4265,15 @@
       </c>
       <c r="N32" s="73">
         <f>N6+N15+N10+N21</f>
-        <v>1424.6040710000002</v>
+        <v>1413.7240710000001</v>
       </c>
       <c r="O32" s="73">
         <f>O6+O15+O10+O21</f>
-        <v>179.54258999999996</v>
+        <v>123.48250000000003</v>
       </c>
       <c r="P32" s="74">
         <f>O32/M32</f>
-        <v>0.13427230635333287</v>
+        <v>9.2347337026136442E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="20" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -3840,38 +4297,38 @@
         <v>1.0504477611940299</v>
       </c>
       <c r="F33" s="74"/>
-      <c r="G33" s="154">
+      <c r="G33" s="151">
         <f>G32/G5</f>
-        <v>1.4171062609411764</v>
-      </c>
-      <c r="H33" s="155">
+        <v>1.180921884117647</v>
+      </c>
+      <c r="H33" s="152">
         <f>H32/H5</f>
-        <v>1.4654300926451616</v>
-      </c>
-      <c r="I33" s="155">
+        <v>1.2211917438709678</v>
+      </c>
+      <c r="I33" s="152">
         <f>I32/I5</f>
-        <v>1.3977258805161292</v>
-      </c>
-      <c r="J33" s="155">
+        <v>1.1717909219354841</v>
+      </c>
+      <c r="J33" s="152">
         <f>J32/J5</f>
-        <v>1.5292471164179104</v>
-      </c>
-      <c r="K33" s="156"/>
+        <v>1.609059701492537</v>
+      </c>
+      <c r="K33" s="153"/>
       <c r="L33" s="72">
         <f>L32/L5</f>
-        <v>0.7676131749579832</v>
+        <v>0.8955487041176472</v>
       </c>
       <c r="M33" s="73">
         <f>M32/M5</f>
-        <v>0.73943933474654377</v>
+        <v>0.86267922387096785</v>
       </c>
       <c r="N33" s="73">
         <f>N32/N5</f>
-        <v>0.78779948626728113</v>
+        <v>0.91208004580645163</v>
       </c>
       <c r="O33" s="73">
         <f>O32/O5</f>
-        <v>0.91876805117270777</v>
+        <v>0.73720895522388075</v>
       </c>
       <c r="P33" s="74"/>
     </row>
@@ -3896,45 +4353,45 @@
         <f>E34/C34</f>
         <v>0.1</v>
       </c>
-      <c r="G34" s="121">
+      <c r="G34" s="119">
         <f>(B34/12)*$P$1</f>
+        <v>900</v>
+      </c>
+      <c r="H34" s="120">
+        <f>(C34/12)*$P$1</f>
         <v>750</v>
       </c>
-      <c r="H34" s="122">
-        <f>(C34/12)*$P$1</f>
-        <v>625</v>
-      </c>
-      <c r="I34" s="122">
+      <c r="I34" s="120">
         <f t="shared" ref="I34" si="17">(D34/12)*$P$1</f>
-        <v>625</v>
-      </c>
-      <c r="J34" s="122">
+        <v>750</v>
+      </c>
+      <c r="J34" s="120">
         <f>(E34/12)*$P$1</f>
-        <v>62.5</v>
-      </c>
-      <c r="K34" s="123">
+        <v>75</v>
+      </c>
+      <c r="K34" s="121">
         <f>J34/H34</f>
         <v>0.1</v>
       </c>
       <c r="L34" s="36">
         <f>(G34/12)*$P$1</f>
-        <v>312.5</v>
+        <v>450</v>
       </c>
       <c r="M34" s="37">
         <f>(H34/12)*$P$1</f>
-        <v>260.41666666666669</v>
+        <v>375</v>
       </c>
       <c r="N34" s="37">
         <f>(I34/12)*$P$1</f>
-        <v>260.41666666666669</v>
+        <v>375</v>
       </c>
       <c r="O34" s="37">
         <f>(J34/12)*$P$1</f>
-        <v>26.041666666666664</v>
+        <v>37.5</v>
       </c>
       <c r="P34" s="38">
         <f>O34/M34</f>
-        <v>9.9999999999999978E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3957,23 +4414,23 @@
         <f>E35/C35</f>
         <v>0.1</v>
       </c>
-      <c r="G35" s="125">
+      <c r="G35" s="123">
         <f t="shared" ref="G35:I35" si="18">SUM(G36:G38)</f>
         <v>412.01866999999993</v>
       </c>
-      <c r="H35" s="125">
+      <c r="H35" s="123">
         <f t="shared" si="18"/>
         <v>298.29265999999996</v>
       </c>
-      <c r="I35" s="125">
+      <c r="I35" s="123">
         <f t="shared" si="18"/>
         <v>316.46064000000001</v>
       </c>
-      <c r="J35" s="125">
+      <c r="J35" s="123">
         <f>SUM(J36:J38)</f>
         <v>-27.099240000000002</v>
       </c>
-      <c r="K35" s="126">
+      <c r="K35" s="124">
         <f>J35/H35</f>
         <v>-9.0847827097052955E-2</v>
       </c>
@@ -4018,20 +4475,20 @@
         <f>E36/C36</f>
         <v>0.1</v>
       </c>
-      <c r="G36" s="134">
+      <c r="G36" s="132">
         <f>H36</f>
         <v>247.56590121352909</v>
       </c>
-      <c r="H36" s="135">
+      <c r="H36" s="133">
         <v>247.56590121352909</v>
       </c>
-      <c r="I36" s="135">
+      <c r="I36" s="133">
         <v>277.14370229045869</v>
       </c>
-      <c r="J36" s="136">
+      <c r="J36" s="134">
         <v>-24.555346400000001</v>
       </c>
-      <c r="K36" s="137">
+      <c r="K36" s="135">
         <f>J36/H36</f>
         <v>-9.9187110501218298E-2</v>
       </c>
@@ -4076,19 +4533,19 @@
         <f>E37/C37</f>
         <v>0.1</v>
       </c>
-      <c r="G37" s="134">
+      <c r="G37" s="132">
         <v>98.45276878647087</v>
       </c>
-      <c r="H37" s="135">
+      <c r="H37" s="133">
         <v>24.452768786470862</v>
       </c>
-      <c r="I37" s="135">
+      <c r="I37" s="133">
         <v>27.390069419541327</v>
       </c>
-      <c r="J37" s="136">
+      <c r="J37" s="134">
         <v>-3.7938936000000001</v>
       </c>
-      <c r="K37" s="137">
+      <c r="K37" s="135">
         <f>J37/H37</f>
         <v>-0.15515190255669825</v>
       </c>
@@ -4125,19 +4582,19 @@
         <f>E38/C38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="134">
+      <c r="G38" s="132">
         <v>66</v>
       </c>
-      <c r="H38" s="135">
+      <c r="H38" s="133">
         <v>26.273990000000001</v>
       </c>
-      <c r="I38" s="135">
+      <c r="I38" s="133">
         <v>11.92686829</v>
       </c>
-      <c r="J38" s="136">
+      <c r="J38" s="134">
         <v>1.25</v>
       </c>
-      <c r="K38" s="137">
+      <c r="K38" s="135">
         <f>J38/H38</f>
         <v>4.7575568080828225E-2</v>
       </c>
@@ -4172,11 +4629,11 @@
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="135"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="135"/>
-      <c r="K39" s="137"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="135"/>
       <c r="L39" s="53">
         <f>B39-G39</f>
         <v>0</v>
@@ -4210,14 +4667,14 @@
         <f>E40/C$48</f>
         <v>0.1</v>
       </c>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144">
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142">
         <f>J35</f>
         <v>-27.099240000000002</v>
       </c>
-      <c r="K40" s="157">
+      <c r="K40" s="154">
         <f>J40/H$48</f>
         <v>-9.0847827097052955E-2</v>
       </c>
@@ -4250,15 +4707,15 @@
         <f t="shared" ref="F41:F43" si="25">E41/$C$48</f>
         <v>0</v>
       </c>
-      <c r="G41" s="146">
+      <c r="G41" s="143">
         <v>0.13</v>
       </c>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="148">
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="145">
         <v>-40.549999999999997</v>
       </c>
-      <c r="K41" s="149">
+      <c r="K41" s="146">
         <f>J41/H$48</f>
         <v>-0.13594032115976304</v>
       </c>
@@ -4269,11 +4726,11 @@
       <c r="N41" s="30"/>
       <c r="O41" s="110">
         <f>(M48-M34)*L41</f>
-        <v>28.046647475574552</v>
+        <v>13.15081414224122</v>
       </c>
       <c r="P41" s="16">
         <f>O41/$M$48</f>
-        <v>5.8901715952336911E-2</v>
+        <v>2.7618470971365154E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4290,16 +4747,16 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G42" s="146">
+      <c r="G42" s="143">
         <f t="shared" ref="G42:G44" si="26">H42</f>
         <v>0</v>
       </c>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="150">
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="147">
         <v>0.88</v>
       </c>
-      <c r="K42" s="149">
+      <c r="K42" s="146">
         <f>J42/H$48</f>
         <v>2.9501228759701969E-3</v>
       </c>
@@ -4332,16 +4789,16 @@
         <f t="shared" si="25"/>
         <v>7.6666666666666662E-3</v>
       </c>
-      <c r="G43" s="146">
+      <c r="G43" s="143">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="150">
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="147">
         <v>31.16</v>
       </c>
-      <c r="K43" s="149">
+      <c r="K43" s="146">
         <f t="shared" ref="K43:K46" si="30">J43/H$48</f>
         <v>0.10446116910821743</v>
       </c>
@@ -4374,16 +4831,16 @@
         <f>E44/$C$48</f>
         <v>-1.2133333333333333E-2</v>
       </c>
-      <c r="G44" s="146">
+      <c r="G44" s="143">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="150">
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="147">
         <v>-7.12</v>
       </c>
-      <c r="K44" s="149">
+      <c r="K44" s="146">
         <f t="shared" si="30"/>
         <v>-2.386917599648614E-2</v>
       </c>
@@ -4414,22 +4871,22 @@
         <f t="shared" ref="F45:F46" si="31">E45/$C$48</f>
         <v>0</v>
       </c>
-      <c r="G45" s="146">
+      <c r="G45" s="143">
         <f>SUM(G46:G46)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="147">
+      <c r="H45" s="144">
         <f>SUM(H46:H46)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="147">
+      <c r="I45" s="144">
         <f>SUM(I46:I46)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="150">
-        <v>0</v>
-      </c>
-      <c r="K45" s="149">
+      <c r="J45" s="147">
+        <v>0</v>
+      </c>
+      <c r="K45" s="146">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -4468,16 +4925,16 @@
         <f t="shared" si="31"/>
         <v>-6.6666666666666671E-3</v>
       </c>
-      <c r="G46" s="146">
+      <c r="G46" s="143">
         <f t="shared" ref="G46" si="32">H46</f>
         <v>0</v>
       </c>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="150">
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="147">
         <v>-2.36</v>
       </c>
-      <c r="K46" s="149">
+      <c r="K46" s="146">
         <f t="shared" si="30"/>
         <v>-7.9116931673746185E-3</v>
       </c>
@@ -4510,13 +4967,13 @@
         <f>E47/C$32</f>
         <v>5.1702786377708972E-3</v>
       </c>
-      <c r="G47" s="151"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="153">
+      <c r="G47" s="148"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="149"/>
+      <c r="J47" s="150">
         <v>12.940000000000001</v>
       </c>
-      <c r="K47" s="133">
+      <c r="K47" s="131">
         <f>J47/H$48</f>
         <v>4.3380215926198125E-2</v>
       </c>
@@ -4556,23 +5013,23 @@
         <f>E48/C48</f>
         <v>0.1</v>
       </c>
-      <c r="G48" s="154">
+      <c r="G48" s="151">
         <f>G36+G37+G38</f>
         <v>412.01866999999993</v>
       </c>
-      <c r="H48" s="155">
+      <c r="H48" s="152">
         <f t="shared" ref="H48:I48" si="35">H36+H37+H38</f>
         <v>298.29265999999996</v>
       </c>
-      <c r="I48" s="155">
+      <c r="I48" s="152">
         <f t="shared" si="35"/>
         <v>316.46064000000001</v>
       </c>
-      <c r="J48" s="155">
+      <c r="J48" s="152">
         <f>J40+SUM(J41:J47)</f>
         <v>-32.149239999999992</v>
       </c>
-      <c r="K48" s="156">
+      <c r="K48" s="153">
         <f>J48/H48</f>
         <v>-0.10777750951029098</v>
       </c>
@@ -4618,38 +5075,38 @@
         <v>1</v>
       </c>
       <c r="F49" s="74"/>
-      <c r="G49" s="154">
+      <c r="G49" s="151">
         <f>G48/G34</f>
-        <v>0.54935822666666656</v>
-      </c>
-      <c r="H49" s="155">
+        <v>0.45779852222222217</v>
+      </c>
+      <c r="H49" s="152">
         <f>H48/H34</f>
-        <v>0.47726825599999995</v>
-      </c>
-      <c r="I49" s="155">
+        <v>0.39772354666666659</v>
+      </c>
+      <c r="I49" s="152">
         <f>I48/I34</f>
-        <v>0.50633702400000002</v>
-      </c>
-      <c r="J49" s="155">
+        <v>0.42194752000000002</v>
+      </c>
+      <c r="J49" s="152">
         <f>J48/J34</f>
-        <v>-0.51438783999999982</v>
-      </c>
-      <c r="K49" s="156"/>
+        <v>-0.4286565333333332</v>
+      </c>
+      <c r="K49" s="153"/>
       <c r="L49" s="72">
         <f>L48/L34</f>
-        <v>2.1965891161167068</v>
+        <v>1.5254091084143799</v>
       </c>
       <c r="M49" s="73">
         <f>M48/M34</f>
-        <v>1.8284548177400481</v>
+        <v>1.2697602900972558</v>
       </c>
       <c r="N49" s="73">
         <f>N48/N34</f>
-        <v>1.7699690089710385</v>
+        <v>1.2291451451187767</v>
       </c>
       <c r="O49" s="73">
         <f>O48/O34</f>
-        <v>3.7749253017600006</v>
+        <v>2.621475904</v>
       </c>
       <c r="P49" s="74"/>
     </row>
@@ -4660,11 +5117,11 @@
       <c r="D50" s="78"/>
       <c r="E50" s="79"/>
       <c r="F50" s="80"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="158"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="160"/>
-      <c r="K50" s="161"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="158"/>
       <c r="L50" s="77"/>
       <c r="M50" s="77"/>
       <c r="N50" s="78"/>
@@ -4695,25 +5152,25 @@
         <f>E51/C51</f>
         <v>0.10610993657505285</v>
       </c>
-      <c r="G51" s="162">
+      <c r="G51" s="159">
         <f>G32+G48</f>
         <v>2419.585873</v>
       </c>
-      <c r="H51" s="163">
+      <c r="H51" s="160">
         <f>H32+H48</f>
         <v>2191.1398629999999</v>
       </c>
-      <c r="I51" s="163">
+      <c r="I51" s="160">
         <f>I32+I48</f>
-        <v>2121.856569</v>
-      </c>
-      <c r="J51" s="163">
+        <v>2132.7365690000001</v>
+      </c>
+      <c r="J51" s="160">
         <f>J32+J48</f>
-        <v>181.30817000000002</v>
-      </c>
-      <c r="K51" s="164">
+        <v>237.36825999999994</v>
+      </c>
+      <c r="K51" s="161">
         <f>J51/H51</f>
-        <v>8.2746050611192792E-2</v>
+        <v>0.10833094865747507</v>
       </c>
       <c r="L51" s="82">
         <f>L32+L48</f>
@@ -4725,15 +5182,15 @@
       </c>
       <c r="N51" s="83">
         <f>N32+N48</f>
-        <v>1885.5335004195415</v>
+        <v>1874.6535004195414</v>
       </c>
       <c r="O51" s="83">
         <f>O32+O48</f>
-        <v>277.84793639999998</v>
+        <v>221.78784640000003</v>
       </c>
       <c r="P51" s="84">
         <f>O51/M51</f>
-        <v>0.15322669105445516</v>
+        <v>0.12231085197279069</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4757,38 +5214,38 @@
         <v>1.0348453608247423</v>
       </c>
       <c r="F52" s="84"/>
-      <c r="G52" s="162">
+      <c r="G52" s="159">
         <f>G51/G4</f>
-        <v>1.1167319413846155</v>
-      </c>
-      <c r="H52" s="163">
+        <v>0.93060995115384615</v>
+      </c>
+      <c r="H52" s="160">
         <f>H51/H4</f>
-        <v>1.1432034067826087</v>
-      </c>
-      <c r="I52" s="163">
+        <v>0.9526695056521739</v>
+      </c>
+      <c r="I52" s="160">
         <f>I51/I4</f>
-        <v>1.1070556012173913</v>
-      </c>
-      <c r="J52" s="163">
+        <v>0.92727676913043489</v>
+      </c>
+      <c r="J52" s="160">
         <f>J51/J4</f>
-        <v>0.89719506804123728</v>
-      </c>
-      <c r="K52" s="164"/>
+        <v>0.97883818556701008</v>
+      </c>
+      <c r="K52" s="161"/>
       <c r="L52" s="82">
         <f>L51/L4</f>
-        <v>0.72819787773180367</v>
+        <v>0.84956419068710431</v>
       </c>
       <c r="M52" s="83">
         <f>M51/M4</f>
-        <v>0.67576878476514457</v>
+        <v>0.78839691555933533</v>
       </c>
       <c r="N52" s="83">
         <f>N51/N4</f>
-        <v>0.70268329208181668</v>
+        <v>0.81506673931284412</v>
       </c>
       <c r="O52" s="83">
         <f>O51/O4</f>
-        <v>0.98208401673048584</v>
+        <v>0.91458905731958773</v>
       </c>
       <c r="P52" s="84"/>
     </row>
@@ -4799,18 +5256,18 @@
       <c r="D53" s="78"/>
       <c r="E53" s="79"/>
       <c r="F53" s="80"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="161"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="158"/>
       <c r="L53" s="77"/>
       <c r="M53" s="77"/>
       <c r="N53" s="78"/>
       <c r="O53" s="79"/>
       <c r="P53" s="80"/>
     </row>
-    <row r="54" spans="1:16" s="117" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="115" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>48</v>
       </c>
@@ -4830,49 +5287,49 @@
         <f>E55+E86</f>
         <v>685</v>
       </c>
-      <c r="F54" s="115">
+      <c r="F54" s="113">
         <f>E54/C54</f>
         <v>7.9651162790697672E-2</v>
       </c>
-      <c r="G54" s="118">
+      <c r="G54" s="116">
         <f t="shared" ref="G54" si="36">(B54/12)*$P$1</f>
-        <v>3666.666666666667</v>
-      </c>
-      <c r="H54" s="119">
+        <v>4400</v>
+      </c>
+      <c r="H54" s="117">
         <f t="shared" ref="H54" si="37">(C54/12)*$P$1</f>
-        <v>3583.333333333333</v>
-      </c>
-      <c r="I54" s="119">
+        <v>4300</v>
+      </c>
+      <c r="I54" s="117">
         <f t="shared" ref="I54" si="38">(D54/12)*$P$1</f>
-        <v>3583.333333333333</v>
-      </c>
-      <c r="J54" s="119">
+        <v>4300</v>
+      </c>
+      <c r="J54" s="117">
         <f t="shared" ref="J54" si="39">(E54/12)*$P$1</f>
-        <v>285.41666666666669</v>
-      </c>
-      <c r="K54" s="165">
+        <v>342.5</v>
+      </c>
+      <c r="K54" s="162">
         <f>J54/H54</f>
-        <v>7.9651162790697685E-2</v>
+        <v>7.9651162790697672E-2</v>
       </c>
       <c r="L54" s="33">
         <f>L55+L86</f>
-        <v>3237.5547011111112</v>
+        <v>3588.9435900000003</v>
       </c>
       <c r="M54" s="33">
         <f>M55+M86</f>
-        <v>3037.5547011111112</v>
+        <v>3388.9435900000003</v>
       </c>
       <c r="N54" s="33">
         <f>N55+N86</f>
-        <v>2962.0780811111113</v>
+        <v>3313.4669700000004</v>
       </c>
       <c r="O54" s="33">
         <f>O55+O86</f>
-        <v>206.3876788888889</v>
-      </c>
-      <c r="P54" s="115">
+        <v>243.43629000000004</v>
+      </c>
+      <c r="P54" s="113">
         <f>O54/M54</f>
-        <v>6.7945337350927074E-2</v>
+        <v>7.1832499873507788E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="7" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -4895,41 +5352,41 @@
         <f>E55/C55</f>
         <v>0.10543478260869565</v>
       </c>
-      <c r="G55" s="121">
+      <c r="G55" s="119">
         <f>(B55/12)*$P$1</f>
-        <v>1916.6666666666665</v>
-      </c>
-      <c r="H55" s="122">
+        <v>2300</v>
+      </c>
+      <c r="H55" s="120">
         <f>(C55/12)*$P$1</f>
-        <v>1916.6666666666665</v>
-      </c>
-      <c r="I55" s="122">
+        <v>2300</v>
+      </c>
+      <c r="I55" s="120">
         <f>(D55/12)*$P$1</f>
-        <v>1916.6666666666665</v>
-      </c>
-      <c r="J55" s="122">
+        <v>2300</v>
+      </c>
+      <c r="J55" s="120">
         <f>(E55/12)*$P$1</f>
-        <v>202.08333333333331</v>
-      </c>
-      <c r="K55" s="166">
+        <v>242.5</v>
+      </c>
+      <c r="K55" s="163">
         <f>J55/H55</f>
         <v>0.10543478260869565</v>
       </c>
       <c r="L55" s="36">
         <f>(G55/12)*$P$1</f>
-        <v>798.61111111111097</v>
+        <v>1150</v>
       </c>
       <c r="M55" s="37">
         <f>(H55/12)*$P$1</f>
-        <v>798.61111111111097</v>
+        <v>1150</v>
       </c>
       <c r="N55" s="37">
         <f>(I55/12)*$P$1</f>
-        <v>798.61111111111097</v>
+        <v>1150</v>
       </c>
       <c r="O55" s="37">
         <f>(J55/12)*$P$1</f>
-        <v>84.201388888888872</v>
+        <v>121.25</v>
       </c>
       <c r="P55" s="85">
         <f>O55/M55</f>
@@ -4960,23 +5417,23 @@
         <f>E56/C56</f>
         <v>0.10727272727272727</v>
       </c>
-      <c r="G56" s="125">
+      <c r="G56" s="123">
         <f>SUM(G57:G61)</f>
         <v>1217.2470000000001</v>
       </c>
-      <c r="H56" s="125">
+      <c r="H56" s="123">
         <f>SUM(H57:H61)</f>
         <v>1217.2470000000001</v>
       </c>
-      <c r="I56" s="125">
+      <c r="I56" s="123">
         <f>SUM(I57:I61)</f>
         <v>1273.2280000000001</v>
       </c>
-      <c r="J56" s="125">
+      <c r="J56" s="123">
         <f>SUM(J57:J61)</f>
         <v>224.76999999999998</v>
       </c>
-      <c r="K56" s="167">
+      <c r="K56" s="164">
         <f>J56/H56</f>
         <v>0.18465438813979412</v>
       </c>
@@ -5021,20 +5478,20 @@
         <f>+E57/C57</f>
         <v>0.1</v>
       </c>
-      <c r="G57" s="168">
+      <c r="G57" s="165">
         <f>H57</f>
         <v>438.31700000000001</v>
       </c>
-      <c r="H57" s="169">
+      <c r="H57" s="166">
         <v>438.31700000000001</v>
       </c>
-      <c r="I57" s="169">
+      <c r="I57" s="166">
         <v>488.31700000000001</v>
       </c>
-      <c r="J57" s="170">
+      <c r="J57" s="167">
         <v>85.138999999999996</v>
       </c>
-      <c r="K57" s="171">
+      <c r="K57" s="168">
         <f>+J57/H57</f>
         <v>0.19424069794235677</v>
       </c>
@@ -5079,20 +5536,20 @@
         <f>+E58/C58</f>
         <v>0.11600000000000001</v>
       </c>
-      <c r="G58" s="168">
+      <c r="G58" s="165">
         <f t="shared" ref="G58:G61" si="43">H58</f>
         <v>251.327</v>
       </c>
-      <c r="H58" s="169">
+      <c r="H58" s="166">
         <v>251.327</v>
       </c>
-      <c r="I58" s="169">
+      <c r="I58" s="166">
         <v>251.327</v>
       </c>
-      <c r="J58" s="170">
+      <c r="J58" s="167">
         <v>55.354999999999997</v>
       </c>
-      <c r="K58" s="171">
+      <c r="K58" s="168">
         <f>+J58/H58</f>
         <v>0.22025090817938381</v>
       </c>
@@ -5137,20 +5594,20 @@
         <f>+E59/C59</f>
         <v>0.11454545454545455</v>
       </c>
-      <c r="G59" s="168">
+      <c r="G59" s="165">
         <f t="shared" si="43"/>
         <v>230.32499999999999</v>
       </c>
-      <c r="H59" s="169">
+      <c r="H59" s="166">
         <v>230.32499999999999</v>
       </c>
-      <c r="I59" s="169">
+      <c r="I59" s="166">
         <v>240.32499999999999</v>
       </c>
-      <c r="J59" s="170">
+      <c r="J59" s="167">
         <v>42.753999999999998</v>
       </c>
-      <c r="K59" s="171">
+      <c r="K59" s="168">
         <f>+J59/H59</f>
         <v>0.1856246608053837</v>
       </c>
@@ -5195,20 +5652,20 @@
         <f>E60/C60</f>
         <v>0.10857142857142857</v>
       </c>
-      <c r="G60" s="168">
+      <c r="G60" s="165">
         <f t="shared" si="43"/>
         <v>145.24199999999999</v>
       </c>
-      <c r="H60" s="172">
+      <c r="H60" s="169">
         <v>145.24199999999999</v>
       </c>
-      <c r="I60" s="172">
+      <c r="I60" s="169">
         <v>145.16399999999999</v>
       </c>
-      <c r="J60" s="173">
+      <c r="J60" s="170">
         <v>19.754999999999999</v>
       </c>
-      <c r="K60" s="149">
+      <c r="K60" s="146">
         <f>J60/H60</f>
         <v>0.13601437600694014</v>
       </c>
@@ -5253,20 +5710,20 @@
         <f>E61/C61</f>
         <v>0.10249999999999999</v>
       </c>
-      <c r="G61" s="168">
+      <c r="G61" s="165">
         <f t="shared" si="43"/>
         <v>152.036</v>
       </c>
-      <c r="H61" s="174">
+      <c r="H61" s="171">
         <v>152.036</v>
       </c>
-      <c r="I61" s="174">
+      <c r="I61" s="171">
         <v>148.095</v>
       </c>
-      <c r="J61" s="175">
+      <c r="J61" s="172">
         <v>21.766999999999999</v>
       </c>
-      <c r="K61" s="171">
+      <c r="K61" s="168">
         <f>J61/H61</f>
         <v>0.14317003867505065</v>
       </c>
@@ -5315,23 +5772,23 @@
         <f>+E62/C62</f>
         <v>5.8252427184466021E-2</v>
       </c>
-      <c r="G62" s="124">
+      <c r="G62" s="122">
         <f>SUM(G63:G67)</f>
         <v>430.24900000000002</v>
       </c>
-      <c r="H62" s="125">
+      <c r="H62" s="123">
         <f>SUM(H63:H67)</f>
         <v>430.24900000000002</v>
       </c>
-      <c r="I62" s="125">
+      <c r="I62" s="123">
         <f>SUM(I63:I67)</f>
         <v>503.24499999999995</v>
       </c>
-      <c r="J62" s="125">
+      <c r="J62" s="123">
         <f>SUM(J63:J67)</f>
         <v>51.647000000000006</v>
       </c>
-      <c r="K62" s="167">
+      <c r="K62" s="164">
         <f>+J62/H62</f>
         <v>0.12003979091177436</v>
       </c>
@@ -5376,20 +5833,20 @@
         <f>E63/C63</f>
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="G63" s="176">
+      <c r="G63" s="173">
         <f>H63</f>
         <v>71.257999999999996</v>
       </c>
-      <c r="H63" s="177">
+      <c r="H63" s="174">
         <v>71.257999999999996</v>
       </c>
-      <c r="I63" s="177">
+      <c r="I63" s="174">
         <v>75.236000000000004</v>
       </c>
-      <c r="J63" s="177">
+      <c r="J63" s="174">
         <v>3.3620000000000001</v>
       </c>
-      <c r="K63" s="178">
+      <c r="K63" s="175">
         <f>J63/H63</f>
         <v>4.7180667433831994E-2</v>
       </c>
@@ -5434,20 +5891,20 @@
         <f>E64/C64</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G64" s="176">
+      <c r="G64" s="173">
         <f t="shared" ref="G64:G67" si="50">H64</f>
         <v>54.5</v>
       </c>
-      <c r="H64" s="177">
+      <c r="H64" s="174">
         <v>54.5</v>
       </c>
-      <c r="I64" s="174">
+      <c r="I64" s="171">
         <v>54.5</v>
       </c>
-      <c r="J64" s="179">
+      <c r="J64" s="176">
         <v>8.4290000000000003</v>
       </c>
-      <c r="K64" s="178">
+      <c r="K64" s="175">
         <f>J64/H64</f>
         <v>0.1546605504587156</v>
       </c>
@@ -5492,20 +5949,20 @@
         <f>E65/C65</f>
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="G65" s="176">
+      <c r="G65" s="173">
         <f t="shared" si="50"/>
         <v>127</v>
       </c>
-      <c r="H65" s="174">
+      <c r="H65" s="171">
         <v>127</v>
       </c>
-      <c r="I65" s="174">
+      <c r="I65" s="171">
         <v>157.453</v>
       </c>
-      <c r="J65" s="175">
+      <c r="J65" s="172">
         <v>15.907</v>
       </c>
-      <c r="K65" s="171">
+      <c r="K65" s="168">
         <f>J65/H65</f>
         <v>0.12525196850393699</v>
       </c>
@@ -5550,20 +6007,20 @@
         <f>+E66/C66</f>
         <v>0.14666666666666667</v>
       </c>
-      <c r="G66" s="176">
+      <c r="G66" s="173">
         <f t="shared" si="50"/>
         <v>87.275999999999996</v>
       </c>
-      <c r="H66" s="174">
+      <c r="H66" s="171">
         <v>87.275999999999996</v>
       </c>
-      <c r="I66" s="174">
+      <c r="I66" s="171">
         <v>95</v>
       </c>
-      <c r="J66" s="170">
+      <c r="J66" s="167">
         <v>12.276</v>
       </c>
-      <c r="K66" s="171">
+      <c r="K66" s="168">
         <f>+J66/H66</f>
         <v>0.14065722535404923</v>
       </c>
@@ -5608,20 +6065,20 @@
         <f>+E67/C67</f>
         <v>8.3720930232558138E-2</v>
       </c>
-      <c r="G67" s="176">
+      <c r="G67" s="173">
         <f t="shared" si="50"/>
         <v>90.215000000000003</v>
       </c>
-      <c r="H67" s="169">
+      <c r="H67" s="166">
         <v>90.215000000000003</v>
       </c>
-      <c r="I67" s="169">
+      <c r="I67" s="166">
         <v>121.056</v>
       </c>
-      <c r="J67" s="170">
+      <c r="J67" s="167">
         <v>11.673</v>
       </c>
-      <c r="K67" s="171">
+      <c r="K67" s="168">
         <f>+J67/H67</f>
         <v>0.12939089951781854</v>
       </c>
@@ -5669,23 +6126,23 @@
         <f>+E68/C68</f>
         <v>0.15111111111111111</v>
       </c>
-      <c r="G68" s="124">
+      <c r="G68" s="122">
         <f>SUM(G69:G70)</f>
         <v>205.80500000000001</v>
       </c>
-      <c r="H68" s="125">
+      <c r="H68" s="123">
         <f>SUM(H69:H70)</f>
         <v>205.80500000000001</v>
       </c>
-      <c r="I68" s="125">
+      <c r="I68" s="123">
         <f>SUM(I69:I70)</f>
         <v>205.80500000000001</v>
       </c>
-      <c r="J68" s="125">
+      <c r="J68" s="123">
         <f>SUM(J69:J70)</f>
         <v>43.762999999999998</v>
       </c>
-      <c r="K68" s="167">
+      <c r="K68" s="164">
         <f>+J68/H68</f>
         <v>0.21264303588348191</v>
       </c>
@@ -5730,20 +6187,20 @@
         <f t="shared" ref="F69:F74" si="51">E69/C69</f>
         <v>0.13181818181818181</v>
       </c>
-      <c r="G69" s="176">
+      <c r="G69" s="173">
         <f t="shared" ref="G69:G70" si="52">H69</f>
         <v>93.257999999999996</v>
       </c>
-      <c r="H69" s="135">
+      <c r="H69" s="133">
         <v>93.257999999999996</v>
       </c>
-      <c r="I69" s="135">
+      <c r="I69" s="133">
         <v>93.257999999999996</v>
       </c>
-      <c r="J69" s="136">
+      <c r="J69" s="134">
         <v>20.736999999999998</v>
       </c>
-      <c r="K69" s="180">
+      <c r="K69" s="177">
         <f t="shared" ref="K69:K74" si="53">J69/H69</f>
         <v>0.22236162045079241</v>
       </c>
@@ -5788,20 +6245,20 @@
         <f t="shared" si="51"/>
         <v>0.1391304347826087</v>
       </c>
-      <c r="G70" s="176">
+      <c r="G70" s="173">
         <f t="shared" si="52"/>
         <v>112.547</v>
       </c>
-      <c r="H70" s="135">
+      <c r="H70" s="133">
         <v>112.547</v>
       </c>
-      <c r="I70" s="135">
+      <c r="I70" s="133">
         <v>112.547</v>
       </c>
-      <c r="J70" s="136">
+      <c r="J70" s="134">
         <v>23.026</v>
       </c>
-      <c r="K70" s="180">
+      <c r="K70" s="177">
         <f t="shared" si="53"/>
         <v>0.20459008236558948</v>
       </c>
@@ -5850,23 +6307,23 @@
         <f t="shared" si="51"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="G71" s="124">
+      <c r="G71" s="122">
         <f>SUM(G72:G72)</f>
         <v>28</v>
       </c>
-      <c r="H71" s="125">
+      <c r="H71" s="123">
         <f>SUM(H72:H72)</f>
         <v>28</v>
       </c>
-      <c r="I71" s="125">
+      <c r="I71" s="123">
         <f>SUM(I72:I72)</f>
         <v>30.457999999999998</v>
       </c>
-      <c r="J71" s="125">
+      <c r="J71" s="123">
         <f>SUM(J72:J72)</f>
         <v>2.5</v>
       </c>
-      <c r="K71" s="167">
+      <c r="K71" s="164">
         <f t="shared" si="53"/>
         <v>8.9285714285714288E-2</v>
       </c>
@@ -5911,20 +6368,20 @@
         <f t="shared" si="51"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="G72" s="176">
+      <c r="G72" s="173">
         <f>H72</f>
         <v>28</v>
       </c>
-      <c r="H72" s="169">
+      <c r="H72" s="166">
         <v>28</v>
       </c>
-      <c r="I72" s="169">
+      <c r="I72" s="166">
         <v>30.457999999999998</v>
       </c>
-      <c r="J72" s="170">
+      <c r="J72" s="167">
         <v>2.5</v>
       </c>
-      <c r="K72" s="171">
+      <c r="K72" s="168">
         <f t="shared" si="53"/>
         <v>8.9285714285714288E-2</v>
       </c>
@@ -5973,23 +6430,23 @@
         <f t="shared" si="51"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G73" s="124">
+      <c r="G73" s="122">
         <f>SUM(G74:G74)</f>
         <v>58</v>
       </c>
-      <c r="H73" s="125">
+      <c r="H73" s="123">
         <f>SUM(H74:H74)</f>
         <v>58</v>
       </c>
-      <c r="I73" s="125">
+      <c r="I73" s="123">
         <f>SUM(I74:I74)</f>
         <v>58</v>
       </c>
-      <c r="J73" s="125">
+      <c r="J73" s="123">
         <f>SUM(J74:J74)</f>
         <v>3</v>
       </c>
-      <c r="K73" s="167">
+      <c r="K73" s="164">
         <f t="shared" si="53"/>
         <v>5.1724137931034482E-2</v>
       </c>
@@ -6034,20 +6491,20 @@
         <f t="shared" si="51"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G74" s="176">
+      <c r="G74" s="173">
         <f>H74</f>
         <v>58</v>
       </c>
-      <c r="H74" s="169">
+      <c r="H74" s="166">
         <v>58</v>
       </c>
-      <c r="I74" s="169">
+      <c r="I74" s="166">
         <v>58</v>
       </c>
-      <c r="J74" s="170">
+      <c r="J74" s="167">
         <v>3</v>
       </c>
-      <c r="K74" s="171">
+      <c r="K74" s="168">
         <f t="shared" si="53"/>
         <v>5.1724137931034482E-2</v>
       </c>
@@ -6079,11 +6536,11 @@
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="86"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
-      <c r="K75" s="167"/>
+      <c r="G75" s="123"/>
+      <c r="H75" s="123"/>
+      <c r="I75" s="123"/>
+      <c r="J75" s="123"/>
+      <c r="K75" s="164"/>
       <c r="L75" s="41">
         <f>B75-G75</f>
         <v>0</v>
@@ -6117,14 +6574,14 @@
         <f>E76/C$83</f>
         <v>9.4347826086956521E-2</v>
       </c>
-      <c r="G76" s="143"/>
-      <c r="H76" s="144"/>
-      <c r="I76" s="144"/>
-      <c r="J76" s="144">
+      <c r="G76" s="141"/>
+      <c r="H76" s="142"/>
+      <c r="I76" s="142"/>
+      <c r="J76" s="142">
         <f>J56+J62+J68+J73+J71</f>
         <v>325.67999999999995</v>
       </c>
-      <c r="K76" s="157">
+      <c r="K76" s="154">
         <f>J76/H$83</f>
         <v>0.16793679784623425</v>
       </c>
@@ -6157,15 +6614,15 @@
         <f t="shared" ref="F77:F79" si="64">E77/$C$83</f>
         <v>0</v>
       </c>
-      <c r="G77" s="146">
+      <c r="G77" s="143">
         <v>0.115</v>
       </c>
-      <c r="H77" s="147"/>
-      <c r="I77" s="147"/>
-      <c r="J77" s="148">
+      <c r="H77" s="144"/>
+      <c r="I77" s="144"/>
+      <c r="J77" s="145">
         <v>45.17</v>
       </c>
-      <c r="K77" s="149">
+      <c r="K77" s="146">
         <f>J77/$H$83</f>
         <v>2.3291897441397699E-2</v>
       </c>
@@ -6197,16 +6654,16 @@
         <f t="shared" si="64"/>
         <v>5.8695652173913039E-3</v>
       </c>
-      <c r="G78" s="146">
+      <c r="G78" s="143">
         <f t="shared" ref="G78:G80" si="65">H78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="147"/>
-      <c r="I78" s="147"/>
-      <c r="J78" s="150">
+      <c r="H78" s="144"/>
+      <c r="I78" s="144"/>
+      <c r="J78" s="147">
         <v>-36.74</v>
       </c>
-      <c r="K78" s="149">
+      <c r="K78" s="146">
         <f>J78/$H$83</f>
         <v>-1.8944970378502356E-2</v>
       </c>
@@ -6239,17 +6696,17 @@
         <f t="shared" si="64"/>
         <v>1.3891304347826086E-2</v>
       </c>
-      <c r="G79" s="146">
+      <c r="G79" s="143">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="H79" s="147"/>
-      <c r="I79" s="147"/>
-      <c r="J79" s="150">
+      <c r="H79" s="144"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="147">
         <f>32.77-J77-J78</f>
         <v>24.340000000000003</v>
       </c>
-      <c r="K79" s="149">
+      <c r="K79" s="146">
         <f t="shared" ref="K79:K82" si="69">J79/$H$83</f>
         <v>1.2550913963330088E-2</v>
       </c>
@@ -6282,17 +6739,17 @@
         <f>E80/$C$83</f>
         <v>-1.2108695652173913E-2</v>
       </c>
-      <c r="G80" s="146">
+      <c r="G80" s="143">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="H80" s="147"/>
-      <c r="I80" s="147"/>
-      <c r="J80" s="150">
+      <c r="H80" s="144"/>
+      <c r="I80" s="144"/>
+      <c r="J80" s="147">
         <f>-5.83-J81</f>
         <v>-21.83</v>
       </c>
-      <c r="K80" s="149">
+      <c r="K80" s="146">
         <f t="shared" si="69"/>
         <v>-1.1256633188968601E-2</v>
       </c>
@@ -6325,22 +6782,22 @@
         <f t="shared" ref="F81:F82" si="70">E81/$C$83</f>
         <v>3.4782608695652175E-3</v>
       </c>
-      <c r="G81" s="146">
+      <c r="G81" s="143">
         <f>SUM(G82:G82)</f>
         <v>0</v>
       </c>
-      <c r="H81" s="147">
+      <c r="H81" s="144">
         <f>SUM(H82:H82)</f>
         <v>0</v>
       </c>
-      <c r="I81" s="147">
+      <c r="I81" s="144">
         <f>SUM(I82:I82)</f>
         <v>0</v>
       </c>
-      <c r="J81" s="150">
+      <c r="J81" s="147">
         <v>16</v>
       </c>
-      <c r="K81" s="149">
+      <c r="K81" s="146">
         <f t="shared" si="69"/>
         <v>8.2503953744158323E-3</v>
       </c>
@@ -6377,16 +6834,16 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="G82" s="146">
+      <c r="G82" s="143">
         <f t="shared" ref="G82" si="71">H82</f>
         <v>0</v>
       </c>
-      <c r="H82" s="147"/>
-      <c r="I82" s="147"/>
-      <c r="J82" s="150">
-        <v>0</v>
-      </c>
-      <c r="K82" s="149">
+      <c r="H82" s="144"/>
+      <c r="I82" s="144"/>
+      <c r="J82" s="147">
+        <v>0</v>
+      </c>
+      <c r="K82" s="146">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
@@ -6429,23 +6886,23 @@
         <f>E83/C83</f>
         <v>0.10547826086956522</v>
       </c>
-      <c r="G83" s="154">
+      <c r="G83" s="151">
         <f>G56+G62+G68+G73+G71</f>
         <v>1939.3010000000002</v>
       </c>
-      <c r="H83" s="155">
+      <c r="H83" s="152">
         <f t="shared" ref="H83:I83" si="74">H56+H62+H68+H73+H71</f>
         <v>1939.3010000000002</v>
       </c>
-      <c r="I83" s="155">
+      <c r="I83" s="152">
         <f t="shared" si="74"/>
         <v>2070.7359999999999</v>
       </c>
-      <c r="J83" s="155">
+      <c r="J83" s="152">
         <f>SUM(J76:J82)</f>
         <v>352.61999999999995</v>
       </c>
-      <c r="K83" s="181">
+      <c r="K83" s="178">
         <f>J83/H83</f>
         <v>0.1818284010579069</v>
       </c>
@@ -6491,34 +6948,34 @@
         <v>1.0004123711340207</v>
       </c>
       <c r="F84" s="84"/>
-      <c r="G84" s="162">
+      <c r="G84" s="159">
         <f>G83/G55</f>
-        <v>1.0118092173913045</v>
-      </c>
-      <c r="H84" s="163">
+        <v>0.84317434782608702</v>
+      </c>
+      <c r="H84" s="160">
         <f>H83/H55</f>
-        <v>1.0118092173913045</v>
-      </c>
-      <c r="I84" s="163">
+        <v>0.84317434782608702</v>
+      </c>
+      <c r="I84" s="160">
         <f>I83/I55</f>
-        <v>1.080384</v>
-      </c>
-      <c r="J84" s="163">
+        <v>0.9003199999999999</v>
+      </c>
+      <c r="J84" s="160">
         <f>J83/J55</f>
-        <v>1.7449237113402061</v>
-      </c>
-      <c r="K84" s="164"/>
+        <v>1.454103092783505</v>
+      </c>
+      <c r="K84" s="161"/>
       <c r="L84" s="82">
         <f>L83/L55</f>
-        <v>3.279066573913044</v>
+        <v>2.2771295652173915</v>
       </c>
       <c r="M84" s="83">
         <f>M83/M55</f>
-        <v>3.279066573913044</v>
+        <v>2.2771295652173915</v>
       </c>
       <c r="N84" s="83">
         <f>N83/N55</f>
-        <v>3.1175649391304354</v>
+        <v>2.1649756521739132</v>
       </c>
       <c r="O84" s="83">
         <f>O83/O69</f>
@@ -6533,19 +6990,19 @@
       <c r="D85" s="94"/>
       <c r="E85" s="94"/>
       <c r="F85" s="95"/>
-      <c r="G85" s="182"/>
-      <c r="H85" s="183"/>
-      <c r="I85" s="183"/>
-      <c r="J85" s="183"/>
-      <c r="K85" s="184"/>
+      <c r="G85" s="179"/>
+      <c r="H85" s="180"/>
+      <c r="I85" s="180"/>
+      <c r="J85" s="180"/>
+      <c r="K85" s="181"/>
       <c r="L85" s="93"/>
       <c r="M85" s="94"/>
       <c r="N85" s="94"/>
       <c r="O85" s="94"/>
       <c r="P85" s="95"/>
     </row>
-    <row r="86" spans="1:16" s="116" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="114" t="s">
+    <row r="86" spans="1:16" s="114" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="112" t="s">
         <v>54</v>
       </c>
       <c r="B86" s="32">
@@ -6560,29 +7017,29 @@
       <c r="E86" s="33">
         <v>200</v>
       </c>
-      <c r="F86" s="115">
+      <c r="F86" s="113">
         <f>E86/C86</f>
         <v>0.05</v>
       </c>
-      <c r="G86" s="118">
+      <c r="G86" s="116">
         <f t="shared" ref="G86" si="75">(B86/12)*$P$1</f>
-        <v>1750</v>
-      </c>
-      <c r="H86" s="119">
+        <v>2100</v>
+      </c>
+      <c r="H86" s="117">
         <f t="shared" ref="H86" si="76">(C86/12)*$P$1</f>
-        <v>1666.6666666666665</v>
-      </c>
-      <c r="I86" s="119">
+        <v>2000</v>
+      </c>
+      <c r="I86" s="117">
         <f t="shared" ref="I86" si="77">(D86/12)*$P$1</f>
-        <v>1666.6666666666665</v>
-      </c>
-      <c r="J86" s="119">
+        <v>2000</v>
+      </c>
+      <c r="J86" s="117">
         <f t="shared" ref="J86" si="78">(E86/12)*$P$1</f>
-        <v>83.333333333333343</v>
-      </c>
-      <c r="K86" s="165">
+        <v>100</v>
+      </c>
+      <c r="K86" s="162">
         <f t="shared" ref="K86:K91" si="79">J86/H86</f>
-        <v>5.000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L86" s="33">
         <f>L87+L118</f>
@@ -6600,7 +7057,7 @@
         <f>O87+O118</f>
         <v>122.18629000000004</v>
       </c>
-      <c r="P86" s="115">
+      <c r="P86" s="113">
         <f>O86/M86</f>
         <v>5.457318824187081E-2</v>
       </c>
@@ -6629,23 +7086,23 @@
         <f>+E87/C87</f>
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="G87" s="124">
+      <c r="G87" s="122">
         <f>SUM(G88:G91)</f>
         <v>1761.0564099999999</v>
       </c>
-      <c r="H87" s="125">
+      <c r="H87" s="123">
         <f>SUM(H88:H91)</f>
         <v>1761.0564099999999</v>
       </c>
-      <c r="I87" s="125">
+      <c r="I87" s="123">
         <f>SUM(I88:I91)</f>
         <v>1836.5330300000001</v>
       </c>
-      <c r="J87" s="125">
+      <c r="J87" s="123">
         <f>SUM(J88:J91)</f>
         <v>103.81370999999996</v>
       </c>
-      <c r="K87" s="167">
+      <c r="K87" s="164">
         <f t="shared" si="79"/>
         <v>5.8949678960028298E-2</v>
       </c>
@@ -6690,20 +7147,20 @@
         <f>E88/C88</f>
         <v>6.1153846153846156E-2</v>
       </c>
-      <c r="G88" s="176">
+      <c r="G88" s="173">
         <f>H88</f>
         <v>1261.7624099999998</v>
       </c>
-      <c r="H88" s="177">
+      <c r="H88" s="174">
         <v>1261.7624099999998</v>
       </c>
-      <c r="I88" s="177">
+      <c r="I88" s="174">
         <v>1463.3490300000001</v>
       </c>
-      <c r="J88" s="179">
+      <c r="J88" s="176">
         <v>57.11470999999996</v>
       </c>
-      <c r="K88" s="178">
+      <c r="K88" s="175">
         <f t="shared" si="79"/>
         <v>4.5265819893937062E-2</v>
       </c>
@@ -6748,20 +7205,20 @@
         <f>E89/C89</f>
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="G89" s="168">
+      <c r="G89" s="165">
         <f t="shared" ref="G89:G91" si="81">H89</f>
         <v>458.40199999999999</v>
       </c>
-      <c r="H89" s="177">
+      <c r="H89" s="174">
         <v>458.40199999999999</v>
       </c>
-      <c r="I89" s="174">
+      <c r="I89" s="171">
         <v>332.29199999999997</v>
       </c>
-      <c r="J89" s="179">
+      <c r="J89" s="176">
         <v>44.881999999999998</v>
       </c>
-      <c r="K89" s="178">
+      <c r="K89" s="175">
         <f t="shared" si="79"/>
         <v>9.7909694983878776E-2</v>
       </c>
@@ -6806,20 +7263,20 @@
         <f>E90/C90</f>
         <v>0.04</v>
       </c>
-      <c r="G90" s="168">
+      <c r="G90" s="165">
         <f t="shared" si="81"/>
         <v>25.471</v>
       </c>
-      <c r="H90" s="174">
+      <c r="H90" s="171">
         <v>25.471</v>
       </c>
-      <c r="I90" s="174">
+      <c r="I90" s="171">
         <v>25.471</v>
       </c>
-      <c r="J90" s="175">
+      <c r="J90" s="172">
         <v>0.92400000000000004</v>
       </c>
-      <c r="K90" s="171">
+      <c r="K90" s="168">
         <f t="shared" si="79"/>
         <v>3.6276549801735308E-2</v>
       </c>
@@ -6864,20 +7321,20 @@
         <f>E91/C91</f>
         <v>0.22</v>
       </c>
-      <c r="G91" s="168">
+      <c r="G91" s="165">
         <f t="shared" si="81"/>
         <v>15.420999999999999</v>
       </c>
-      <c r="H91" s="174">
+      <c r="H91" s="171">
         <v>15.420999999999999</v>
       </c>
-      <c r="I91" s="174">
+      <c r="I91" s="171">
         <v>15.420999999999999</v>
       </c>
-      <c r="J91" s="170">
+      <c r="J91" s="167">
         <v>0.89300000000000002</v>
       </c>
-      <c r="K91" s="171">
+      <c r="K91" s="168">
         <f t="shared" si="79"/>
         <v>5.7908047467738803E-2</v>
       </c>
@@ -6909,11 +7366,11 @@
       <c r="D92" s="49"/>
       <c r="E92" s="50"/>
       <c r="F92" s="89"/>
-      <c r="G92" s="185"/>
-      <c r="H92" s="131"/>
-      <c r="I92" s="131"/>
-      <c r="J92" s="132"/>
-      <c r="K92" s="180"/>
+      <c r="G92" s="182"/>
+      <c r="H92" s="129"/>
+      <c r="I92" s="129"/>
+      <c r="J92" s="130"/>
+      <c r="K92" s="177"/>
       <c r="L92" s="96"/>
       <c r="M92" s="49"/>
       <c r="N92" s="49"/>
@@ -6935,14 +7392,14 @@
         <f>E93/C$101</f>
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="G93" s="186"/>
-      <c r="H93" s="187"/>
-      <c r="I93" s="187"/>
-      <c r="J93" s="187">
+      <c r="G93" s="183"/>
+      <c r="H93" s="184"/>
+      <c r="I93" s="184"/>
+      <c r="J93" s="184">
         <f>SUM(J88:J91)</f>
         <v>103.81370999999996</v>
       </c>
-      <c r="K93" s="157">
+      <c r="K93" s="154">
         <f>J93/H$101</f>
         <v>5.8949678960028298E-2</v>
       </c>
@@ -6975,15 +7432,15 @@
         <f t="shared" ref="F94:F96" si="82">E94/$C$101</f>
         <v>0</v>
       </c>
-      <c r="G94" s="146">
+      <c r="G94" s="143">
         <v>0.105</v>
       </c>
-      <c r="H94" s="147"/>
-      <c r="I94" s="147"/>
-      <c r="J94" s="148">
+      <c r="H94" s="144"/>
+      <c r="I94" s="144"/>
+      <c r="J94" s="145">
         <v>0.8</v>
       </c>
-      <c r="K94" s="149">
+      <c r="K94" s="146">
         <f t="shared" ref="K94:K96" si="83">J94/$H$101</f>
         <v>4.5427278504951474E-4</v>
       </c>
@@ -7015,16 +7472,16 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="G95" s="146">
+      <c r="G95" s="143">
         <f t="shared" ref="G95:G97" si="84">H95</f>
         <v>0</v>
       </c>
-      <c r="H95" s="147"/>
-      <c r="I95" s="147"/>
-      <c r="J95" s="150">
+      <c r="H95" s="144"/>
+      <c r="I95" s="144"/>
+      <c r="J95" s="147">
         <v>40</v>
       </c>
-      <c r="K95" s="149">
+      <c r="K95" s="146">
         <f t="shared" si="83"/>
         <v>2.2713639252475736E-2</v>
       </c>
@@ -7057,17 +7514,17 @@
         <f t="shared" si="82"/>
         <v>8.1250000000000003E-3</v>
       </c>
-      <c r="G96" s="146">
+      <c r="G96" s="143">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
-      <c r="H96" s="147"/>
-      <c r="I96" s="147"/>
-      <c r="J96" s="150">
+      <c r="H96" s="144"/>
+      <c r="I96" s="144"/>
+      <c r="J96" s="147">
         <f>51.32-J94-J95</f>
         <v>10.520000000000003</v>
       </c>
-      <c r="K96" s="149">
+      <c r="K96" s="146">
         <f t="shared" si="83"/>
         <v>5.9736871234011201E-3</v>
       </c>
@@ -7100,16 +7557,16 @@
         <f>E97/$C$101</f>
         <v>-1.21E-2</v>
       </c>
-      <c r="G97" s="146">
+      <c r="G97" s="143">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
-      <c r="H97" s="147"/>
-      <c r="I97" s="147"/>
-      <c r="J97" s="150">
+      <c r="H97" s="144"/>
+      <c r="I97" s="144"/>
+      <c r="J97" s="147">
         <v>-18.989999999999998</v>
       </c>
-      <c r="K97" s="149">
+      <c r="K97" s="146">
         <f>J97/$H$101</f>
         <v>-1.0783300235112854E-2</v>
       </c>
@@ -7140,20 +7597,20 @@
         <f t="shared" ref="F98:F99" si="88">E98/$C$101</f>
         <v>0</v>
       </c>
-      <c r="G98" s="146">
+      <c r="G98" s="143">
         <f>SUM(G99:G99)</f>
         <v>0</v>
       </c>
-      <c r="H98" s="147">
+      <c r="H98" s="144">
         <f>SUM(H99:H99)</f>
         <v>0</v>
       </c>
-      <c r="I98" s="147">
+      <c r="I98" s="144">
         <f>SUM(I99:I99)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="150"/>
-      <c r="K98" s="149">
+      <c r="J98" s="147"/>
+      <c r="K98" s="146">
         <f t="shared" ref="K98:K99" si="89">J98/$H$101</f>
         <v>0</v>
       </c>
@@ -7192,14 +7649,14 @@
         <f t="shared" si="88"/>
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="G99" s="146">
+      <c r="G99" s="143">
         <f t="shared" ref="G99" si="90">H99</f>
         <v>0</v>
       </c>
-      <c r="H99" s="147"/>
-      <c r="I99" s="147"/>
-      <c r="J99" s="150"/>
-      <c r="K99" s="149">
+      <c r="H99" s="144"/>
+      <c r="I99" s="144"/>
+      <c r="J99" s="147"/>
+      <c r="K99" s="146">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
@@ -7228,11 +7685,11 @@
         <f>E100/C$101</f>
         <v>0</v>
       </c>
-      <c r="G100" s="151"/>
-      <c r="H100" s="152"/>
-      <c r="I100" s="152"/>
-      <c r="J100" s="153"/>
-      <c r="K100" s="188">
+      <c r="G100" s="148"/>
+      <c r="H100" s="149"/>
+      <c r="I100" s="149"/>
+      <c r="J100" s="150"/>
+      <c r="K100" s="185">
         <f>J100/H$101</f>
         <v>0</v>
       </c>
@@ -7269,23 +7726,23 @@
         <f>E101/C101</f>
         <v>5.0025E-2</v>
       </c>
-      <c r="G101" s="154">
+      <c r="G101" s="151">
         <f>SUM(G88:G91)</f>
         <v>1761.0564099999999</v>
       </c>
-      <c r="H101" s="155">
+      <c r="H101" s="152">
         <f t="shared" ref="H101:I101" si="92">SUM(H88:H91)</f>
         <v>1761.0564099999999</v>
       </c>
-      <c r="I101" s="155">
+      <c r="I101" s="152">
         <f t="shared" si="92"/>
         <v>1836.5330300000001</v>
       </c>
-      <c r="J101" s="155">
+      <c r="J101" s="152">
         <f>SUM(J93:J99)</f>
         <v>136.14370999999997</v>
       </c>
-      <c r="K101" s="181">
+      <c r="K101" s="178">
         <f>J101/H101</f>
         <v>7.7307977885841817E-2</v>
       </c>
@@ -7331,23 +7788,23 @@
         <v>1.0004999999999999</v>
       </c>
       <c r="F102" s="92"/>
-      <c r="G102" s="154">
+      <c r="G102" s="151">
         <f>G101/G86</f>
-        <v>1.0063179485714284</v>
-      </c>
-      <c r="H102" s="155">
+        <v>0.83859829047619039</v>
+      </c>
+      <c r="H102" s="152">
         <f>H101/H86</f>
-        <v>1.056633846</v>
-      </c>
-      <c r="I102" s="155">
+        <v>0.88052820499999995</v>
+      </c>
+      <c r="I102" s="152">
         <f>I101/I86</f>
-        <v>1.1019198180000001</v>
-      </c>
-      <c r="J102" s="155">
+        <v>0.91826651500000001</v>
+      </c>
+      <c r="J102" s="152">
         <f>J101/J86</f>
-        <v>1.6337245199999995</v>
-      </c>
-      <c r="K102" s="181"/>
+        <v>1.3614370999999996</v>
+      </c>
+      <c r="K102" s="178"/>
       <c r="L102" s="72">
         <f>L101/L86</f>
         <v>1</v>
@@ -7390,23 +7847,23 @@
         <f>E103/C103</f>
         <v>7.9686046511627903E-2</v>
       </c>
-      <c r="G103" s="162">
+      <c r="G103" s="159">
         <f>G83+G101</f>
         <v>3700.3574100000001</v>
       </c>
-      <c r="H103" s="163">
+      <c r="H103" s="160">
         <f>H83+H101</f>
         <v>3700.3574100000001</v>
       </c>
-      <c r="I103" s="163">
+      <c r="I103" s="160">
         <f>I83+I101</f>
         <v>3907.2690299999999</v>
       </c>
-      <c r="J103" s="163">
+      <c r="J103" s="160">
         <f>J83+J101</f>
         <v>488.76370999999995</v>
       </c>
-      <c r="K103" s="164">
+      <c r="K103" s="161">
         <f>J103/H103</f>
         <v>0.13208554089373759</v>
       </c>
@@ -7452,38 +7909,38 @@
         <v>1.0004379562043795</v>
       </c>
       <c r="F104" s="84"/>
-      <c r="G104" s="162">
+      <c r="G104" s="159">
         <f>G103/G54</f>
-        <v>1.0091883845454546</v>
-      </c>
-      <c r="H104" s="163">
+        <v>0.84099032045454547</v>
+      </c>
+      <c r="H104" s="160">
         <f>H103/H54</f>
-        <v>1.0326578818604653</v>
-      </c>
-      <c r="I104" s="163">
+        <v>0.8605482348837209</v>
+      </c>
+      <c r="I104" s="160">
         <f>I103/I54</f>
-        <v>1.0904006595348839</v>
-      </c>
-      <c r="J104" s="163">
+        <v>0.90866721627906977</v>
+      </c>
+      <c r="J104" s="160">
         <f>J103/J54</f>
-        <v>1.7124567941605837</v>
-      </c>
-      <c r="K104" s="164"/>
+        <v>1.4270473284671532</v>
+      </c>
+      <c r="K104" s="161"/>
       <c r="L104" s="82">
         <f>L103/L54</f>
-        <v>1.5621798106652052</v>
+        <v>1.4092287780984598</v>
       </c>
       <c r="M104" s="83">
         <f>M103/M54</f>
-        <v>1.5991950986835288</v>
+        <v>1.4333795948489068</v>
       </c>
       <c r="N104" s="83">
         <f>N103/N54</f>
-        <v>1.5709204290301941</v>
+        <v>1.4043263482418238</v>
       </c>
       <c r="O104" s="83">
         <f>O103/O54</f>
-        <v>2.5126565102715461</v>
+        <v>2.1302548810614881</v>
       </c>
       <c r="P104" s="84"/>
     </row>
@@ -7513,19 +7970,19 @@
       </c>
       <c r="G105" s="100">
         <f>G4+G54</f>
-        <v>5833.3333333333339</v>
+        <v>7000</v>
       </c>
       <c r="H105" s="100">
         <f>H4+H54</f>
-        <v>5500</v>
+        <v>6600</v>
       </c>
       <c r="I105" s="100">
         <f>I4+I54</f>
-        <v>5500</v>
+        <v>6600</v>
       </c>
       <c r="J105" s="100">
         <f>J4+J54</f>
-        <v>487.5</v>
+        <v>585</v>
       </c>
       <c r="K105" s="101">
         <f>J105/H105</f>
@@ -7533,23 +7990,23 @@
       </c>
       <c r="L105" s="100">
         <f>L4+L54</f>
-        <v>6270.8880344444442</v>
+        <v>6188.9435900000008</v>
       </c>
       <c r="M105" s="100">
         <f>M4+M54</f>
-        <v>5720.8880344444442</v>
+        <v>5688.9435900000008</v>
       </c>
       <c r="N105" s="100">
         <f>N4+N54</f>
-        <v>5645.4114144444447</v>
+        <v>5613.4669700000004</v>
       </c>
       <c r="O105" s="100">
         <f>O4+O54</f>
-        <v>489.30434555555559</v>
+        <v>485.93629000000004</v>
       </c>
       <c r="P105" s="101">
         <f>O105/M105</f>
-        <v>8.5529439242568908E-2</v>
+        <v>8.5417667148989948E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" s="5" customFormat="1" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -7586,15 +8043,15 @@
       </c>
       <c r="I106" s="103">
         <f>I51+I103</f>
-        <v>6029.125599</v>
+        <v>6040.0055990000001</v>
       </c>
       <c r="J106" s="103">
         <f>J51+J103</f>
-        <v>670.07187999999996</v>
+        <v>726.13196999999991</v>
       </c>
       <c r="K106" s="104">
         <f>J106/H106</f>
-        <v>0.11373541375820645</v>
+        <v>0.12325083698634175</v>
       </c>
       <c r="L106" s="103">
         <f>L51+L103</f>
@@ -7606,15 +8063,15 @@
       </c>
       <c r="N106" s="103">
         <f>N51+N103</f>
-        <v>6538.7224704195423</v>
+        <v>6527.8424704195422</v>
       </c>
       <c r="O106" s="103">
         <f>O51+O103</f>
-        <v>796.42928140000004</v>
+        <v>740.36919140000009</v>
       </c>
       <c r="P106" s="104">
         <f>O106/M106</f>
-        <v>0.11938758726587864</v>
+        <v>0.11098398001120444</v>
       </c>
     </row>
     <row r="107" spans="1:16" s="27" customFormat="1" ht="31.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7640,19 +8097,19 @@
       <c r="F107" s="107"/>
       <c r="G107" s="106">
         <f t="shared" ref="G107:J107" si="94">+G106/G105</f>
-        <v>1.0491331342285715</v>
+        <v>0.87427761185714292</v>
       </c>
       <c r="H107" s="106">
         <f t="shared" si="94"/>
-        <v>1.0711813223636364</v>
+        <v>0.89265110196969699</v>
       </c>
       <c r="I107" s="106">
         <f t="shared" si="94"/>
-        <v>1.0962046543636363</v>
+        <v>0.91515236348484852</v>
       </c>
       <c r="J107" s="106">
         <f t="shared" si="94"/>
-        <v>1.3745064205128203</v>
+        <v>1.2412512307692307</v>
       </c>
       <c r="K107" s="107"/>
       <c r="L107" s="106">
@@ -7678,62 +8135,62 @@
     <mergeCell ref="L2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F50">
-    <cfRule type="cellIs" dxfId="11" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53:F83">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:F102">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F107">
-    <cfRule type="cellIs" dxfId="8" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K50">
-    <cfRule type="cellIs" dxfId="7" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:K83">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K85:K102">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K105:K107">
-    <cfRule type="cellIs" dxfId="4" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P50">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P83">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P85:P102">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P105:P107">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7748,6 +8205,1458 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B262F58-0BF2-49D0-A6D5-C3D2FB62DE72}">
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="201" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="203" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="206" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="207"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="208"/>
+      <c r="B3" s="209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="210" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="209" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="210" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="210" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="210" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="209" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="210" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="210" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="210" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="212" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="214">
+        <v>3400</v>
+      </c>
+      <c r="C4" s="215">
+        <v>3100</v>
+      </c>
+      <c r="D4" s="215">
+        <v>3100</v>
+      </c>
+      <c r="E4" s="215">
+        <v>335</v>
+      </c>
+      <c r="F4" s="216">
+        <v>0.10806451612903226</v>
+      </c>
+      <c r="G4" s="217">
+        <v>1700</v>
+      </c>
+      <c r="H4" s="218">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="218">
+        <v>1550</v>
+      </c>
+      <c r="J4" s="218">
+        <v>167.5</v>
+      </c>
+      <c r="K4" s="219">
+        <v>0.10806451612903226</v>
+      </c>
+      <c r="L4" s="214">
+        <v>1700</v>
+      </c>
+      <c r="M4" s="215">
+        <v>1550</v>
+      </c>
+      <c r="N4" s="215">
+        <v>1550</v>
+      </c>
+      <c r="O4" s="215">
+        <v>167.5</v>
+      </c>
+      <c r="P4" s="216">
+        <v>0.10806451612903226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="220" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="221">
+        <v>3400</v>
+      </c>
+      <c r="C5" s="222">
+        <v>3100</v>
+      </c>
+      <c r="D5" s="222">
+        <v>3100</v>
+      </c>
+      <c r="E5" s="222">
+        <v>335</v>
+      </c>
+      <c r="F5" s="223">
+        <v>0.10806451612903226</v>
+      </c>
+      <c r="G5" s="224">
+        <v>1700</v>
+      </c>
+      <c r="H5" s="225">
+        <v>1550</v>
+      </c>
+      <c r="I5" s="225">
+        <v>1550</v>
+      </c>
+      <c r="J5" s="225">
+        <v>167.5</v>
+      </c>
+      <c r="K5" s="226">
+        <v>0.10806451612903226</v>
+      </c>
+      <c r="L5" s="221">
+        <v>1700</v>
+      </c>
+      <c r="M5" s="222">
+        <v>1550</v>
+      </c>
+      <c r="N5" s="222">
+        <v>1550</v>
+      </c>
+      <c r="O5" s="222">
+        <v>167.5</v>
+      </c>
+      <c r="P5" s="223">
+        <v>0.10806451612903226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="230">
+        <v>0.13063063063063063</v>
+      </c>
+      <c r="G6" s="231" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="233">
+        <v>9.0533380570254091E-2</v>
+      </c>
+      <c r="L6" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="230">
+        <v>0.2069572193158225</v>
+      </c>
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="234" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="237" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="238">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G7" s="239" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="240" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="240" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="241" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="242">
+        <v>4.1519912816446118E-2</v>
+      </c>
+      <c r="L7" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="237" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="238">
+        <v>0.17465702253463605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="243" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="244" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="244" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="245" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="246">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G8" s="239" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="247" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="247" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="248" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="249">
+        <v>0.10801793947616621</v>
+      </c>
+      <c r="L8" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="244" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="244" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="245" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="246">
+        <v>0.2672636708571362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="234" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="237" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="238">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="G9" s="239" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="240" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="240" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="241" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="242">
+        <v>0.17469861604763917</v>
+      </c>
+      <c r="L9" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="237" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="238">
+        <v>0.18598548823378044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="227" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="230">
+        <v>9.508771929824561E-2</v>
+      </c>
+      <c r="G10" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="233">
+        <v>0.11626586217609866</v>
+      </c>
+      <c r="L10" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="230">
+        <v>7.4554441328779475E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="250" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="251">
+        <v>450</v>
+      </c>
+      <c r="C11" s="252">
+        <v>450</v>
+      </c>
+      <c r="D11" s="252">
+        <v>450</v>
+      </c>
+      <c r="E11" s="253">
+        <v>50</v>
+      </c>
+      <c r="F11" s="254">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G11" s="255">
+        <v>304</v>
+      </c>
+      <c r="H11" s="256">
+        <v>304</v>
+      </c>
+      <c r="I11" s="256">
+        <v>301</v>
+      </c>
+      <c r="J11" s="257">
+        <v>47</v>
+      </c>
+      <c r="K11" s="258">
+        <v>0.15460526315789475</v>
+      </c>
+      <c r="L11" s="251">
+        <v>146</v>
+      </c>
+      <c r="M11" s="252">
+        <v>146</v>
+      </c>
+      <c r="N11" s="252">
+        <v>149</v>
+      </c>
+      <c r="O11" s="253">
+        <v>3</v>
+      </c>
+      <c r="P11" s="254">
+        <v>2.0547945205479451E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="250" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="254">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="255" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="256" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="256" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="257" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="258">
+        <v>-8.1725083910844418E-2</v>
+      </c>
+      <c r="L12" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="254">
+        <v>5.4014685927169105E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="250" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="254">
+        <v>7.1739130434782611E-2</v>
+      </c>
+      <c r="G13" s="255" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="256" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="256" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="257" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="258">
+        <v>-0.19301470588235295</v>
+      </c>
+      <c r="L13" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="254">
+        <v>7.8152832205201278E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="250" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="254">
+        <v>0.12933333333333333</v>
+      </c>
+      <c r="G14" s="255" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="256" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="256" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="257" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="258">
+        <v>0.12611288821556096</v>
+      </c>
+      <c r="L14" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="254">
+        <v>0.14011989851395465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="227" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="229">
+        <v>290</v>
+      </c>
+      <c r="C15" s="229">
+        <v>250</v>
+      </c>
+      <c r="D15" s="229">
+        <v>250</v>
+      </c>
+      <c r="E15" s="229">
+        <v>20</v>
+      </c>
+      <c r="F15" s="230">
+        <v>0.08</v>
+      </c>
+      <c r="G15" s="232">
+        <v>124.805773</v>
+      </c>
+      <c r="H15" s="232">
+        <v>124.805773</v>
+      </c>
+      <c r="I15" s="232">
+        <v>108.82361900000001</v>
+      </c>
+      <c r="J15" s="232">
+        <v>-3.7426799999999987</v>
+      </c>
+      <c r="K15" s="233">
+        <v>-2.9988035889974406E-2</v>
+      </c>
+      <c r="L15" s="229">
+        <v>165.19422700000001</v>
+      </c>
+      <c r="M15" s="229">
+        <v>125.19422700000001</v>
+      </c>
+      <c r="N15" s="229">
+        <v>141.17638099999999</v>
+      </c>
+      <c r="O15" s="229">
+        <v>23.74268</v>
+      </c>
+      <c r="P15" s="230">
+        <v>0.18964676382402199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="250" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="254">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="255" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="256" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="256" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="257" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="258">
+        <v>5.5814734642084071E-2</v>
+      </c>
+      <c r="L16" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="254">
+        <v>1.4036182158450664E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="250" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="254">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="255" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="256" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="256" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="257" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="258">
+        <v>-0.28479572702847378</v>
+      </c>
+      <c r="L17" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="252" t="s">
+        <v>87</v>
+      </c>
+      <c r="O17" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="254">
+        <v>0.23344383756528853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="250" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="237" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="254">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="255" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="240" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="240" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="241" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="258">
+        <v>4.2397241379310356E-2</v>
+      </c>
+      <c r="L18" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="237" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="254">
+        <v>0.25186181818181813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="250" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="237" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="254">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="255" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="240" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="240" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="241" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="258">
+        <v>0.10373766538693406</v>
+      </c>
+      <c r="L19" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" s="236" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="237" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="254">
+        <v>9.8739877838751419E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="250" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="259" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="260" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="260" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="261" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="254">
+        <v>0.08</v>
+      </c>
+      <c r="G20" s="255" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="262" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="262" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="263" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="258">
+        <v>-8.284567298985622E-2</v>
+      </c>
+      <c r="L20" s="259" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="260" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="260" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="261" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="254">
+        <v>0.18301067647717084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="227" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="230">
+        <v>0.125</v>
+      </c>
+      <c r="G21" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="232" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="233">
+        <v>0.32287667352044608</v>
+      </c>
+      <c r="L21" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" s="229" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" s="230">
+        <v>1.1441067641966423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="250" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="264" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="265" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="265" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="266" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="254">
+        <v>0.125</v>
+      </c>
+      <c r="G22" s="267" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="268" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="268" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="269" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="258">
+        <v>0.32287667352044608</v>
+      </c>
+      <c r="L22" s="264" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="265" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="265" t="s">
+        <v>87</v>
+      </c>
+      <c r="O22" s="266" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="254">
+        <v>1.1441067641966423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="227"/>
+      <c r="B23" s="229"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="232"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="233"/>
+      <c r="L23" s="229"/>
+      <c r="M23" s="229"/>
+      <c r="N23" s="229"/>
+      <c r="O23" s="229"/>
+      <c r="P23" s="230"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="270" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="271"/>
+      <c r="C24" s="272"/>
+      <c r="D24" s="273"/>
+      <c r="E24" s="273" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="274">
+        <v>0.10761609907120744</v>
+      </c>
+      <c r="G24" s="275"/>
+      <c r="H24" s="276"/>
+      <c r="I24" s="276"/>
+      <c r="J24" s="276" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="277">
+        <v>0.12368536648332937</v>
+      </c>
+      <c r="L24" s="278"/>
+      <c r="M24" s="273"/>
+      <c r="N24" s="273"/>
+      <c r="O24" s="273" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" s="274">
+        <v>9.2347337026136442E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="279" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="280">
+        <v>0.13</v>
+      </c>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
+      <c r="E25" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="283">
+        <v>5.2321981424148616E-3</v>
+      </c>
+      <c r="G25" s="284">
+        <v>0</v>
+      </c>
+      <c r="H25" s="285"/>
+      <c r="I25" s="285"/>
+      <c r="J25" s="286" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="287">
+        <v>3.0277140124764734E-2</v>
+      </c>
+      <c r="L25" s="280">
+        <v>0</v>
+      </c>
+      <c r="M25" s="281"/>
+      <c r="N25" s="281"/>
+      <c r="O25" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" s="283">
+        <v>-3.0220929194227301E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="279" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="280"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="281"/>
+      <c r="E26" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="283">
+        <v>0</v>
+      </c>
+      <c r="G26" s="284">
+        <v>0</v>
+      </c>
+      <c r="H26" s="285"/>
+      <c r="I26" s="285"/>
+      <c r="J26" s="286" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="287">
+        <v>-2.4407675340501322E-3</v>
+      </c>
+      <c r="L26" s="280">
+        <v>0</v>
+      </c>
+      <c r="M26" s="281"/>
+      <c r="N26" s="281"/>
+      <c r="O26" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" s="283">
+        <v>3.45510252109206E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="279" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="280"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
+      <c r="E27" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="283">
+        <v>7.3684210526315788E-3</v>
+      </c>
+      <c r="G27" s="284">
+        <v>0</v>
+      </c>
+      <c r="H27" s="285"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="286" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="287">
+        <v>-3.8724731654951232E-3</v>
+      </c>
+      <c r="L27" s="280">
+        <v>0</v>
+      </c>
+      <c r="M27" s="281"/>
+      <c r="N27" s="281"/>
+      <c r="O27" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" s="283">
+        <v>2.3280809844501264E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="279" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="280"/>
+      <c r="C28" s="281"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="283">
+        <v>-1.1269349845201239E-2</v>
+      </c>
+      <c r="G28" s="284">
+        <v>0</v>
+      </c>
+      <c r="H28" s="285"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="286" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="287">
+        <v>-7.5230583733493254E-3</v>
+      </c>
+      <c r="L28" s="280">
+        <v>0</v>
+      </c>
+      <c r="M28" s="281"/>
+      <c r="N28" s="281"/>
+      <c r="O28" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" s="283">
+        <v>-1.6572526378225115E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="279" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="280"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="281"/>
+      <c r="E29" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="283">
+        <v>0</v>
+      </c>
+      <c r="G29" s="284">
+        <v>0</v>
+      </c>
+      <c r="H29" s="285">
+        <v>0</v>
+      </c>
+      <c r="I29" s="285">
+        <v>0</v>
+      </c>
+      <c r="J29" s="286" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="287">
+        <v>5.8113512715479336E-3</v>
+      </c>
+      <c r="L29" s="280">
+        <v>0</v>
+      </c>
+      <c r="M29" s="281">
+        <v>0</v>
+      </c>
+      <c r="N29" s="281">
+        <v>0</v>
+      </c>
+      <c r="O29" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" s="283">
+        <v>-8.2264345740287147E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="279" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="280"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="283">
+        <v>0</v>
+      </c>
+      <c r="G30" s="284">
+        <v>0</v>
+      </c>
+      <c r="H30" s="285"/>
+      <c r="I30" s="285"/>
+      <c r="J30" s="286" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="287">
+        <v>-3.5502073222547378E-3</v>
+      </c>
+      <c r="L30" s="280">
+        <v>0</v>
+      </c>
+      <c r="M30" s="281"/>
+      <c r="N30" s="281"/>
+      <c r="O30" s="282" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" s="283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="288" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="289"/>
+      <c r="C31" s="290"/>
+      <c r="D31" s="290"/>
+      <c r="E31" s="291"/>
+      <c r="F31" s="292">
+        <v>0</v>
+      </c>
+      <c r="G31" s="293"/>
+      <c r="H31" s="294"/>
+      <c r="I31" s="294"/>
+      <c r="J31" s="295" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="249">
+        <v>0</v>
+      </c>
+      <c r="L31" s="289"/>
+      <c r="M31" s="290"/>
+      <c r="N31" s="290"/>
+      <c r="O31" s="291"/>
+      <c r="P31" s="292"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="296" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="297" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="298" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="298" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="298" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="299">
+        <v>0.10894736842105264</v>
+      </c>
+      <c r="G32" s="300" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="301" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="301" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="301" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" s="302">
+        <v>0.14238735148449272</v>
+      </c>
+      <c r="L32" s="297" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="298" t="s">
+        <v>87</v>
+      </c>
+      <c r="N32" s="298" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" s="298" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" s="299">
+        <v>9.2347337026136442E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F5:F32">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K32">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P32">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -7759,11 +9668,11 @@
   <cols>
     <col min="1" max="1" width="26.26953125" customWidth="1"/>
     <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" style="192" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" style="192" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="192" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="192" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="190" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" style="188" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="188" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="188" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="188" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="187" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7773,19 +9682,19 @@
       <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="192" t="s">
+      <c r="C1" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="192" t="s">
+      <c r="D1" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="192" t="s">
+      <c r="E1" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="192" t="s">
+      <c r="F1" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="190" t="s">
+      <c r="G1" s="187" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7796,19 +9705,19 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="193">
+      <c r="C2" s="189">
         <v>60000</v>
       </c>
-      <c r="D2" s="193">
+      <c r="D2" s="189">
         <v>60000</v>
       </c>
-      <c r="E2" s="193">
+      <c r="E2" s="189">
         <v>60000</v>
       </c>
-      <c r="F2" s="193">
+      <c r="F2" s="189">
         <v>3000</v>
       </c>
-      <c r="G2" s="189">
+      <c r="G2" s="186">
         <f>F2/D2</f>
         <v>0.05</v>
       </c>
@@ -7820,19 +9729,19 @@
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="193">
+      <c r="C3" s="189">
         <v>20000</v>
       </c>
-      <c r="D3" s="193">
+      <c r="D3" s="189">
         <v>20000</v>
       </c>
-      <c r="E3" s="193">
+      <c r="E3" s="189">
         <v>20000</v>
       </c>
-      <c r="F3" s="193">
+      <c r="F3" s="189">
         <v>2000</v>
       </c>
-      <c r="G3" s="189">
+      <c r="G3" s="186">
         <f t="shared" ref="G3:G14" si="0">F3/D3</f>
         <v>0.1</v>
       </c>
@@ -7844,19 +9753,19 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="193">
+      <c r="C4" s="189">
         <v>60000</v>
       </c>
-      <c r="D4" s="193">
+      <c r="D4" s="189">
         <v>60000</v>
       </c>
-      <c r="E4" s="193">
+      <c r="E4" s="189">
         <v>60000</v>
       </c>
-      <c r="F4" s="193">
+      <c r="F4" s="189">
         <v>6000</v>
       </c>
-      <c r="G4" s="189">
+      <c r="G4" s="186">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -7868,19 +9777,19 @@
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="193">
+      <c r="C5" s="189">
         <v>140000</v>
       </c>
-      <c r="D5" s="193">
+      <c r="D5" s="189">
         <v>100000</v>
       </c>
-      <c r="E5" s="193">
+      <c r="E5" s="189">
         <v>100000</v>
       </c>
-      <c r="F5" s="193">
+      <c r="F5" s="189">
         <v>8000</v>
       </c>
-      <c r="G5" s="189">
+      <c r="G5" s="186">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
@@ -7892,19 +9801,19 @@
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="193">
+      <c r="C6" s="189">
         <v>10000</v>
       </c>
-      <c r="D6" s="193">
+      <c r="D6" s="189">
         <v>10000</v>
       </c>
-      <c r="E6" s="193">
+      <c r="E6" s="189">
         <v>10000</v>
       </c>
-      <c r="F6" s="193">
+      <c r="F6" s="189">
         <v>1000</v>
       </c>
-      <c r="G6" s="189">
+      <c r="G6" s="186">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -7916,19 +9825,19 @@
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="193">
+      <c r="C7" s="189">
         <v>200000</v>
       </c>
-      <c r="D7" s="193">
+      <c r="D7" s="189">
         <v>200000</v>
       </c>
-      <c r="E7" s="193">
+      <c r="E7" s="189">
         <v>200000</v>
       </c>
-      <c r="F7" s="193">
+      <c r="F7" s="189">
         <v>2000</v>
       </c>
-      <c r="G7" s="189">
+      <c r="G7" s="186">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -7940,19 +9849,19 @@
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="193">
+      <c r="C8" s="189">
         <v>450000</v>
       </c>
-      <c r="D8" s="193">
+      <c r="D8" s="189">
         <v>450000</v>
       </c>
-      <c r="E8" s="193">
+      <c r="E8" s="189">
         <v>450000</v>
       </c>
-      <c r="F8" s="193">
+      <c r="F8" s="189">
         <v>50000</v>
       </c>
-      <c r="G8" s="189">
+      <c r="G8" s="186">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
@@ -7964,19 +9873,19 @@
       <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="193">
+      <c r="C9" s="189">
         <v>550000</v>
       </c>
-      <c r="D9" s="193">
+      <c r="D9" s="189">
         <v>460000</v>
       </c>
-      <c r="E9" s="193">
+      <c r="E9" s="189">
         <v>460000</v>
       </c>
-      <c r="F9" s="193">
+      <c r="F9" s="189">
         <v>33000</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="186">
         <f t="shared" si="0"/>
         <v>7.1739130434782611E-2</v>
       </c>
@@ -7988,19 +9897,19 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="189">
         <v>600000</v>
       </c>
-      <c r="D10" s="193">
+      <c r="D10" s="189">
         <v>600000</v>
       </c>
-      <c r="E10" s="193">
+      <c r="E10" s="189">
         <v>600000</v>
       </c>
-      <c r="F10" s="193">
+      <c r="F10" s="189">
         <v>77600</v>
       </c>
-      <c r="G10" s="189">
+      <c r="G10" s="186">
         <f t="shared" si="0"/>
         <v>0.12933333333333333</v>
       </c>
@@ -8012,19 +9921,19 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="193">
+      <c r="C11" s="189">
         <v>220000</v>
       </c>
-      <c r="D11" s="193">
+      <c r="D11" s="189">
         <v>160000</v>
       </c>
-      <c r="E11" s="193">
+      <c r="E11" s="189">
         <v>160000</v>
       </c>
-      <c r="F11" s="193">
+      <c r="F11" s="189">
         <v>20000</v>
       </c>
-      <c r="G11" s="189">
+      <c r="G11" s="186">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
@@ -8036,19 +9945,19 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="193">
+      <c r="C12" s="189">
         <v>450000</v>
       </c>
-      <c r="D12" s="193">
+      <c r="D12" s="189">
         <v>410000</v>
       </c>
-      <c r="E12" s="193">
+      <c r="E12" s="189">
         <v>410000</v>
       </c>
-      <c r="F12" s="193">
+      <c r="F12" s="189">
         <v>76200</v>
       </c>
-      <c r="G12" s="189">
+      <c r="G12" s="186">
         <f t="shared" si="0"/>
         <v>0.18585365853658536</v>
       </c>
@@ -8060,19 +9969,19 @@
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="193">
+      <c r="C13" s="189">
         <v>500000</v>
       </c>
-      <c r="D13" s="193">
+      <c r="D13" s="189">
         <v>450000</v>
       </c>
-      <c r="E13" s="193">
+      <c r="E13" s="189">
         <v>450000</v>
       </c>
-      <c r="F13" s="193">
+      <c r="F13" s="189">
         <v>30000</v>
       </c>
-      <c r="G13" s="189">
+      <c r="G13" s="186">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -8084,19 +9993,19 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="193">
+      <c r="C14" s="189">
         <v>370000</v>
       </c>
-      <c r="D14" s="193">
+      <c r="D14" s="189">
         <v>350000</v>
       </c>
-      <c r="E14" s="193">
+      <c r="E14" s="189">
         <v>350000</v>
       </c>
-      <c r="F14" s="193">
+      <c r="F14" s="189">
         <v>61200</v>
       </c>
-      <c r="G14" s="189">
+      <c r="G14" s="186">
         <f t="shared" si="0"/>
         <v>0.17485714285714285</v>
       </c>
